--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
@@ -481,28 +481,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L2" t="n">
-        <v>120.708</v>
+        <v>127.416</v>
       </c>
       <c r="M2" t="n">
-        <v>588</v>
+        <v>193.509</v>
       </c>
       <c r="N2" t="n">
-        <v>678</v>
+        <v>687.434</v>
       </c>
       <c r="O2" t="n">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="P2" t="n">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="Q2" t="n">
         <v>882</v>
       </c>
       <c r="R2" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -534,25 +534,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>426.18</v>
       </c>
       <c r="K3" t="n">
-        <v>690</v>
+        <v>617.1799999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>733</v>
+        <v>751.028</v>
       </c>
       <c r="M3" t="n">
-        <v>773</v>
+        <v>796.409</v>
       </c>
       <c r="N3" t="n">
-        <v>811.16</v>
+        <v>839.321</v>
       </c>
       <c r="O3" t="n">
         <v>836.3920000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -590,31 +590,31 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>360</v>
+        <v>371.18</v>
       </c>
       <c r="M4" t="n">
-        <v>409</v>
+        <v>424.811</v>
       </c>
       <c r="N4" t="n">
-        <v>423.243</v>
+        <v>427.485</v>
       </c>
       <c r="O4" t="n">
-        <v>620</v>
+        <v>611.1950000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>647.263</v>
+        <v>705.811</v>
       </c>
       <c r="Q4" t="n">
-        <v>708.5069999999999</v>
+        <v>788.566</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7910000000001</v>
+        <v>810.852</v>
       </c>
       <c r="S4" t="n">
-        <v>797.828</v>
+        <v>833.604</v>
       </c>
       <c r="T4" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -646,25 +646,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>228</v>
+        <v>69.759</v>
       </c>
       <c r="K5" t="n">
-        <v>527</v>
+        <v>534.28</v>
       </c>
       <c r="L5" t="n">
-        <v>547</v>
+        <v>565.284</v>
       </c>
       <c r="M5" t="n">
-        <v>581</v>
+        <v>605.8630000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>606.811</v>
+        <v>625.126</v>
       </c>
       <c r="O5" t="n">
-        <v>642.306</v>
+        <v>644.809</v>
       </c>
       <c r="P5" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -696,25 +696,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>392.811</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L6" t="n">
-        <v>419.207</v>
+        <v>431.413</v>
       </c>
       <c r="M6" t="n">
-        <v>515</v>
+        <v>524.434</v>
       </c>
       <c r="N6" t="n">
-        <v>588.388</v>
+        <v>615.022</v>
       </c>
       <c r="O6" t="n">
-        <v>634.443</v>
+        <v>596.982</v>
       </c>
       <c r="P6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="H10" t="n">
-        <v>190</v>
+        <v>269.305</v>
       </c>
       <c r="I10" t="n">
-        <v>229.833</v>
+        <v>293.485</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25.495</v>
+        <v>50.99</v>
       </c>
       <c r="I11" t="n">
-        <v>44.715</v>
+        <v>53.934</v>
       </c>
       <c r="J11" t="n">
-        <v>99.759</v>
+        <v>630.63</v>
       </c>
       <c r="K11" t="n">
-        <v>143.73</v>
+        <v>664.176</v>
       </c>
       <c r="L11" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -999,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>140.971</v>
       </c>
       <c r="H2" t="n">
-        <v>161</v>
+        <v>167.325</v>
       </c>
       <c r="I2" t="n">
         <v>186.232</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -1075,16 +1075,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99</v>
+        <v>64.03100000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>159</v>
+        <v>180.213</v>
       </c>
       <c r="I4" t="n">
         <v>180.18</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>85</v>
+        <v>110.18</v>
       </c>
       <c r="I5" t="n">
-        <v>134</v>
+        <v>145.18</v>
       </c>
       <c r="J5" t="n">
-        <v>162.028</v>
+        <v>180.056</v>
       </c>
       <c r="K5" t="n">
         <v>202.442</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>87</v>
+        <v>82.801</v>
       </c>
       <c r="H7" t="n">
-        <v>165</v>
+        <v>178.601</v>
       </c>
       <c r="I7" t="n">
         <v>202.803</v>
       </c>
       <c r="J7" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>150.971</v>
+        <v>52</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>100.541</v>
       </c>
       <c r="I9" t="n">
-        <v>124</v>
+        <v>135.18</v>
       </c>
       <c r="J9" t="n">
-        <v>144.296</v>
+        <v>154.591</v>
       </c>
       <c r="K9" t="n">
         <v>188.296</v>
       </c>
       <c r="L9" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>32.016</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>74.03100000000001</v>
+        <v>106.18</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1632,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>67</v>
+        <v>102.811</v>
       </c>
       <c r="G20" t="n">
-        <v>110.541</v>
+        <v>112.811</v>
       </c>
       <c r="H20" t="n">
         <v>12</v>
@@ -1690,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>41.4</v>
+        <v>67.464</v>
       </c>
       <c r="G22" t="n">
-        <v>92.801</v>
+        <v>77.464</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1726,7 @@
         <v>2633.545</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>110.044</v>
       </c>
       <c r="H2" t="n">
-        <v>192</v>
+        <v>234.953</v>
       </c>
       <c r="I2" t="n">
         <v>209.616</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1969,28 +1969,28 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>42</v>
+        <v>56.765</v>
       </c>
       <c r="L7" t="n">
-        <v>77</v>
+        <v>85.062</v>
       </c>
       <c r="M7" t="n">
-        <v>97.77</v>
+        <v>108.541</v>
       </c>
       <c r="N7" t="n">
-        <v>116.826</v>
+        <v>125.881</v>
       </c>
       <c r="O7" t="n">
-        <v>141</v>
+        <v>171.095</v>
       </c>
       <c r="P7" t="n">
-        <v>162.18</v>
+        <v>181.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>219.35</v>
+        <v>227.8</v>
       </c>
       <c r="R7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2022,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>14.765</v>
+        <v>29.53</v>
       </c>
       <c r="K8" t="n">
-        <v>95</v>
+        <v>101.403</v>
       </c>
       <c r="L8" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="M8" t="n">
-        <v>157.601</v>
+        <v>190.604</v>
       </c>
       <c r="N8" t="n">
-        <v>178.041</v>
+        <v>186.302</v>
       </c>
       <c r="O8" t="n">
-        <v>233.318</v>
+        <v>234.579</v>
       </c>
       <c r="P8" t="n">
         <v>85</v>
@@ -2175,25 +2175,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>35</v>
+        <v>54.235</v>
       </c>
       <c r="L11" t="n">
-        <v>53.062</v>
+        <v>61.125</v>
       </c>
       <c r="M11" t="n">
-        <v>83</v>
+        <v>97.142</v>
       </c>
       <c r="N11" t="n">
-        <v>101.544</v>
+        <v>110.088</v>
       </c>
       <c r="O11" t="n">
-        <v>126.544</v>
+        <v>161.664</v>
       </c>
       <c r="P11" t="n">
-        <v>152.355</v>
+        <v>157.374</v>
       </c>
       <c r="Q11" t="n">
-        <v>213.434</v>
+        <v>213.067</v>
       </c>
       <c r="R11" t="n">
         <v>92</v>
@@ -2228,22 +2228,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34</v>
+        <v>54.616</v>
       </c>
       <c r="K12" t="n">
-        <v>53.22</v>
+        <v>62.439</v>
       </c>
       <c r="L12" t="n">
-        <v>70.291</v>
+        <v>77.36199999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>93.32899999999999</v>
+        <v>106.367</v>
       </c>
       <c r="N12" t="n">
-        <v>131.613</v>
+        <v>145.708</v>
       </c>
       <c r="O12" t="n">
-        <v>189.047</v>
+        <v>169.86</v>
       </c>
       <c r="P12" t="n">
         <v>62</v>
@@ -2278,25 +2278,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K13" t="n">
-        <v>90</v>
+        <v>126.031</v>
       </c>
       <c r="L13" t="n">
-        <v>120</v>
+        <v>133.038</v>
       </c>
       <c r="M13" t="n">
-        <v>147.029</v>
+        <v>164.059</v>
       </c>
       <c r="N13" t="n">
-        <v>168.21</v>
+        <v>179.39</v>
       </c>
       <c r="O13" t="n">
         <v>218.521</v>
       </c>
       <c r="P13" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -2325,22 +2325,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>73.056</v>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" t="n">
-        <v>90.38500000000001</v>
+        <v>95.77</v>
       </c>
       <c r="L14" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>176.079</v>
       </c>
       <c r="N14" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>80.806</v>
       </c>
       <c r="J15" t="n">
-        <v>95</v>
+        <v>99.602</v>
       </c>
       <c r="K15" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L15" t="n">
-        <v>130.207</v>
+        <v>140.413</v>
       </c>
       <c r="M15" t="n">
-        <v>179.564</v>
+        <v>177.564</v>
       </c>
       <c r="N15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2407,16 +2407,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119</v>
+        <v>150.623</v>
       </c>
       <c r="H16" t="n">
-        <v>168.217</v>
+        <v>173.721</v>
       </c>
       <c r="I16" t="n">
-        <v>228.197</v>
+        <v>197.416</v>
       </c>
       <c r="J16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>64</v>
+        <v>96.38800000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L17" t="n">
-        <v>94.38500000000001</v>
+        <v>99.77</v>
       </c>
       <c r="M17" t="n">
-        <v>142.121</v>
+        <v>179.857</v>
       </c>
       <c r="N17" t="n">
-        <v>162.121</v>
+        <v>160.121</v>
       </c>
       <c r="O17" t="n">
-        <v>217.166</v>
+        <v>201.178</v>
       </c>
       <c r="P17" t="n">
         <v>100</v>
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>33.541</v>
+        <v>67.08199999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J18" t="n">
-        <v>114.05</v>
+        <v>149.313</v>
       </c>
       <c r="K18" t="n">
-        <v>163.101</v>
+        <v>154.958</v>
       </c>
       <c r="L18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>105.606</v>
+        <v>91</v>
       </c>
       <c r="J19" t="n">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="K19" t="n">
         <v>206.479</v>
       </c>
       <c r="L19" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -2618,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>37</v>
+        <v>57.459</v>
       </c>
       <c r="I21" t="n">
-        <v>54.071</v>
+        <v>80.2</v>
       </c>
       <c r="J21" t="n">
-        <v>126.721</v>
+        <v>195.399</v>
       </c>
       <c r="K21" t="n">
-        <v>195.244</v>
+        <v>201.273</v>
       </c>
       <c r="L21" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>39.051</v>
+        <v>78.102</v>
       </c>
       <c r="I23" t="n">
-        <v>75</v>
+        <v>84.434</v>
       </c>
       <c r="J23" t="n">
-        <v>102.464</v>
+        <v>125.447</v>
       </c>
       <c r="K23" t="n">
-        <v>157.642</v>
+        <v>150.224</v>
       </c>
       <c r="L23" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>72</v>
+        <v>112.05</v>
       </c>
       <c r="H24" t="n">
-        <v>87.38500000000001</v>
+        <v>106</v>
       </c>
       <c r="I24" t="n">
-        <v>142.385</v>
+        <v>152.053</v>
       </c>
       <c r="J24" t="n">
         <v>50</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42.426</v>
+        <v>84.85299999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>74</v>
+        <v>94.47199999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>141.009</v>
+        <v>138.21</v>
       </c>
       <c r="J25" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2784,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>65</v>
+        <v>90.24299999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>120.044</v>
+        <v>100.243</v>
       </c>
       <c r="H26" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2896,7 +2896,7 @@
         <v>1751.805</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -2979,76 +2979,76 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.246</v>
+        <v>16.492</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.246</v>
+        <v>112.246</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.246</v>
+        <v>201.246</v>
       </c>
       <c r="AD2" t="n">
-        <v>293.246</v>
+        <v>298.246</v>
       </c>
       <c r="AE2" t="n">
-        <v>391.849</v>
+        <v>400.451</v>
       </c>
       <c r="AF2" t="n">
-        <v>487.679</v>
+        <v>493.51</v>
       </c>
       <c r="AG2" t="n">
-        <v>582.679</v>
+        <v>587.679</v>
       </c>
       <c r="AH2" t="n">
-        <v>677.679</v>
+        <v>706</v>
       </c>
       <c r="AI2" t="n">
-        <v>881</v>
+        <v>791.606</v>
       </c>
       <c r="AJ2" t="n">
-        <v>978</v>
+        <v>987.899</v>
       </c>
       <c r="AK2" t="n">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="AL2" t="n">
-        <v>1167.123</v>
+        <v>1171.246</v>
       </c>
       <c r="AM2" t="n">
-        <v>1261</v>
+        <v>1264.606</v>
       </c>
       <c r="AN2" t="n">
-        <v>1355.472</v>
+        <v>1359.944</v>
       </c>
       <c r="AO2" t="n">
-        <v>1451.129</v>
+        <v>1456.786</v>
       </c>
       <c r="AP2" t="n">
-        <v>1546.129</v>
+        <v>1551.129</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1736</v>
+        <v>1646.899</v>
       </c>
       <c r="AR2" t="n">
-        <v>1832</v>
+        <v>1835.606</v>
       </c>
       <c r="AS2" t="n">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="AT2" t="n">
-        <v>2900</v>
+        <v>2444.232</v>
       </c>
       <c r="AU2" t="n">
-        <v>3097</v>
+        <v>3129.249</v>
       </c>
       <c r="AV2" t="n">
-        <v>3196.849</v>
+        <v>3206.698</v>
       </c>
       <c r="AW2" t="n">
         <v>3307.464</v>
       </c>
       <c r="AX2" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
@@ -3122,67 +3122,67 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.828</v>
+        <v>105.657</v>
       </c>
       <c r="Z3" t="n">
-        <v>196.434</v>
+        <v>200.04</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.262</v>
+        <v>292.091</v>
       </c>
       <c r="AB3" t="n">
-        <v>398</v>
+        <v>401.606</v>
       </c>
       <c r="AC3" t="n">
-        <v>497</v>
+        <v>505.944</v>
       </c>
       <c r="AD3" t="n">
-        <v>593.325</v>
+        <v>599.649</v>
       </c>
       <c r="AE3" t="n">
-        <v>685.325</v>
+        <v>687.325</v>
       </c>
       <c r="AF3" t="n">
-        <v>1346</v>
+        <v>1258.831</v>
       </c>
       <c r="AG3" t="n">
-        <v>1447</v>
+        <v>1457.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>1545.062</v>
+        <v>1553.125</v>
       </c>
       <c r="AI3" t="n">
-        <v>1643</v>
+        <v>1959.942</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2504</v>
+        <v>2028</v>
       </c>
       <c r="AK3" t="n">
-        <v>2601.211</v>
+        <v>2617.155</v>
       </c>
       <c r="AL3" t="n">
-        <v>2698.282</v>
+        <v>2705.142</v>
       </c>
       <c r="AM3" t="n">
-        <v>2791.282</v>
+        <v>2794.071</v>
       </c>
       <c r="AN3" t="n">
-        <v>2887.365</v>
+        <v>2893.237</v>
       </c>
       <c r="AO3" t="n">
-        <v>2983.022</v>
+        <v>2988.657</v>
       </c>
       <c r="AP3" t="n">
-        <v>3108.799</v>
+        <v>3144.554</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3222.965</v>
+        <v>3222.943</v>
       </c>
       <c r="AR3" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2856</v>
+        <v>2841.294</v>
       </c>
       <c r="G4" t="n">
-        <v>2956.77</v>
+        <v>2931.294</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -3276,61 +3276,61 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>12.207</v>
+        <v>24.413</v>
       </c>
       <c r="W5" t="n">
-        <v>105.207</v>
+        <v>108.207</v>
       </c>
       <c r="X5" t="n">
-        <v>200.207</v>
+        <v>205.207</v>
       </c>
       <c r="Y5" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Z5" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA5" t="n">
-        <v>776</v>
+        <v>781.831</v>
       </c>
       <c r="AB5" t="n">
-        <v>871.385</v>
+        <v>876.77</v>
       </c>
       <c r="AC5" t="n">
-        <v>967.788</v>
+        <v>974.191</v>
       </c>
       <c r="AD5" t="n">
-        <v>1065.599</v>
+        <v>1073.409</v>
       </c>
       <c r="AE5" t="n">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="AF5" t="n">
-        <v>1819</v>
+        <v>1822.606</v>
       </c>
       <c r="AG5" t="n">
-        <v>1913.472</v>
+        <v>1917.944</v>
       </c>
       <c r="AH5" t="n">
-        <v>2009</v>
+        <v>2014.385</v>
       </c>
       <c r="AI5" t="n">
-        <v>2105.403</v>
+        <v>2111.806</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2666</v>
+        <v>2669.606</v>
       </c>
       <c r="AK5" t="n">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="AL5" t="n">
-        <v>2891.738</v>
+        <v>2864.125</v>
       </c>
       <c r="AM5" t="n">
-        <v>3021.032</v>
+        <v>2956.833</v>
       </c>
       <c r="AN5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2573</v>
+        <v>2564.478</v>
       </c>
       <c r="H6" t="n">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="I6" t="n">
-        <v>2852.434</v>
+        <v>2840.434</v>
       </c>
       <c r="J6" t="n">
         <v>40</v>
@@ -3388,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2480</v>
+        <v>2498.028</v>
       </c>
       <c r="I7" t="n">
-        <v>2625.902</v>
+        <v>2576</v>
       </c>
       <c r="J7" t="n">
-        <v>2721.287</v>
+        <v>2771.462</v>
       </c>
       <c r="K7" t="n">
-        <v>2862.365</v>
+        <v>2858.309</v>
       </c>
       <c r="L7" t="n">
         <v>30</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>213</v>
+        <v>232.849</v>
       </c>
       <c r="P8" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q8" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="R8" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="S8" t="n">
-        <v>1160</v>
+        <v>1180.881</v>
       </c>
       <c r="T8" t="n">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="U8" t="n">
-        <v>2200</v>
+        <v>2223.854</v>
       </c>
       <c r="V8" t="n">
-        <v>2292.236</v>
+        <v>2294.472</v>
       </c>
       <c r="W8" t="n">
-        <v>2385.398</v>
+        <v>2388.561</v>
       </c>
       <c r="X8" t="n">
-        <v>2515.511</v>
+        <v>2555.623</v>
       </c>
       <c r="Y8" t="n">
         <v>2636.317</v>
@@ -3512,25 +3512,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>303</v>
+        <v>323.616</v>
       </c>
       <c r="K9" t="n">
-        <v>1253</v>
+        <v>1655.53</v>
       </c>
       <c r="L9" t="n">
-        <v>1742</v>
+        <v>1751.111</v>
       </c>
       <c r="M9" t="n">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="N9" t="n">
-        <v>2487.608</v>
+        <v>2513.849</v>
       </c>
       <c r="O9" t="n">
-        <v>2633.322</v>
+        <v>2618.083</v>
       </c>
       <c r="P9" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -3562,25 +3562,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1641</v>
+        <v>1762.476</v>
       </c>
       <c r="K10" t="n">
-        <v>2029</v>
+        <v>2050.932</v>
       </c>
       <c r="L10" t="n">
-        <v>2131</v>
+        <v>2142.705</v>
       </c>
       <c r="M10" t="n">
-        <v>2226</v>
+        <v>2231</v>
       </c>
       <c r="N10" t="n">
-        <v>2321</v>
+        <v>2326</v>
       </c>
       <c r="O10" t="n">
         <v>2469.523</v>
       </c>
       <c r="P10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2026</v>
+        <v>2932.388</v>
       </c>
       <c r="G13" t="n">
-        <v>2155.357</v>
+        <v>3022.388</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1934</v>
+        <v>1378.388</v>
       </c>
       <c r="G14" t="n">
-        <v>2064.311</v>
+        <v>1468.388</v>
       </c>
       <c r="H14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -3752,25 +3752,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>788</v>
+        <v>918.202</v>
       </c>
       <c r="K15" t="n">
-        <v>1256</v>
+        <v>1333.13</v>
       </c>
       <c r="L15" t="n">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="M15" t="n">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="N15" t="n">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="O15" t="n">
         <v>1670.277</v>
       </c>
       <c r="P15" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>694</v>
+        <v>637.311</v>
       </c>
       <c r="G16" t="n">
-        <v>828.204</v>
+        <v>727.311</v>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3873,40 +3873,40 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>152</v>
+        <v>182.806</v>
       </c>
       <c r="P2" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="R2" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="S2" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="T2" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="U2" t="n">
-        <v>673</v>
+        <v>680.071</v>
       </c>
       <c r="V2" t="n">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="W2" t="n">
-        <v>813.032</v>
+        <v>902.631</v>
       </c>
       <c r="X2" t="n">
-        <v>876.183</v>
+        <v>842.8150000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>931.46</v>
+        <v>891.092</v>
       </c>
       <c r="Z2" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -3944,28 +3944,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>376</v>
+        <v>406.806</v>
       </c>
       <c r="M3" t="n">
-        <v>392.403</v>
+        <v>398.806</v>
       </c>
       <c r="N3" t="n">
-        <v>557</v>
+        <v>560.606</v>
       </c>
       <c r="O3" t="n">
-        <v>577.4400000000001</v>
+        <v>587.881</v>
       </c>
       <c r="P3" t="n">
-        <v>651.072</v>
+        <v>714.704</v>
       </c>
       <c r="Q3" t="n">
-        <v>712.317</v>
+        <v>763.561</v>
       </c>
       <c r="R3" t="n">
-        <v>733.087</v>
+        <v>799.492</v>
       </c>
       <c r="S3" t="n">
-        <v>788.131</v>
+        <v>808.9829999999999</v>
       </c>
       <c r="T3" t="n">
         <v>110</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>519</v>
+        <v>550.623</v>
       </c>
       <c r="H4" t="n">
-        <v>653</v>
+        <v>714.1799999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>701.079</v>
+        <v>753.311</v>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -4336,7 +4336,7 @@
         <v>1717.918</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4362,16 +4362,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>719.078</v>
       </c>
       <c r="I2" t="n">
-        <v>914</v>
+        <v>876.361</v>
       </c>
       <c r="J2" t="n">
-        <v>1054</v>
+        <v>1012.811</v>
       </c>
       <c r="K2" t="n">
-        <v>1162.028</v>
+        <v>1102.811</v>
       </c>
       <c r="L2" t="n">
         <v>40</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>812</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>1001</v>
+        <v>916</v>
       </c>
       <c r="I3" t="n">
-        <v>1110.209</v>
+        <v>1014.198</v>
       </c>
       <c r="J3" t="n">
         <v>30</v>
@@ -4444,31 +4444,31 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.207</v>
+        <v>24.413</v>
       </c>
       <c r="M4" t="n">
-        <v>103.207</v>
+        <v>104.207</v>
       </c>
       <c r="N4" t="n">
-        <v>195.207</v>
+        <v>197.207</v>
       </c>
       <c r="O4" t="n">
-        <v>290.207</v>
+        <v>295.207</v>
       </c>
       <c r="P4" t="n">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="Q4" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="R4" t="n">
-        <v>1038</v>
+        <v>1069</v>
       </c>
       <c r="S4" t="n">
-        <v>1143.811</v>
+        <v>1162.028</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -4491,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>732</v>
+        <v>837.804</v>
       </c>
       <c r="H5" t="n">
-        <v>912</v>
+        <v>1004.606</v>
       </c>
       <c r="I5" t="n">
-        <v>1023.213</v>
+        <v>1110.209</v>
       </c>
       <c r="J5" t="n">
         <v>20</v>
@@ -4538,28 +4538,28 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N6" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O6" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P6" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="R6" t="n">
-        <v>863.204</v>
+        <v>828</v>
       </c>
       <c r="S6" t="n">
-        <v>976.0069999999999</v>
+        <v>927.1660000000001</v>
       </c>
       <c r="T6" t="n">
         <v>120</v>
@@ -4591,22 +4591,22 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.133</v>
+        <v>30.265</v>
       </c>
       <c r="J7" t="n">
-        <v>106.133</v>
+        <v>107.133</v>
       </c>
       <c r="K7" t="n">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="L7" t="n">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="M7" t="n">
-        <v>1020.682</v>
+        <v>1025.682</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -4638,25 +4638,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K8" t="n">
-        <v>262.828</v>
+        <v>265.657</v>
       </c>
       <c r="L8" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M8" t="n">
-        <v>626.236</v>
+        <v>628.472</v>
       </c>
       <c r="N8" t="n">
-        <v>825</v>
+        <v>729.236</v>
       </c>
       <c r="O8" t="n">
-        <v>935.616</v>
+        <v>835.111</v>
       </c>
       <c r="P8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -4700,34 +4700,34 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>16.553</v>
+        <v>33.106</v>
       </c>
       <c r="O9" t="n">
-        <v>109.553</v>
+        <v>112.553</v>
       </c>
       <c r="P9" t="n">
-        <v>201.553</v>
+        <v>203.553</v>
       </c>
       <c r="Q9" t="n">
-        <v>293.553</v>
+        <v>295.553</v>
       </c>
       <c r="R9" t="n">
-        <v>386.553</v>
+        <v>389.553</v>
       </c>
       <c r="S9" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="T9" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="U9" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="V9" t="n">
-        <v>862.098</v>
+        <v>917</v>
       </c>
       <c r="W9" t="n">
-        <v>974.458</v>
+        <v>1023.213</v>
       </c>
       <c r="X9" t="n">
         <v>100</v>
@@ -4759,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>357</v>
+        <v>373.763</v>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K10" t="n">
-        <v>652</v>
+        <v>703.419</v>
       </c>
       <c r="L10" t="n">
-        <v>772.414</v>
+        <v>761</v>
       </c>
       <c r="M10" t="n">
-        <v>895.955</v>
+        <v>880.388</v>
       </c>
       <c r="N10" t="n">
         <v>50</v>
@@ -4850,16 +4850,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="I12" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="J12" t="n">
-        <v>665</v>
+        <v>786.0119999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>790.355</v>
+        <v>866.5410000000001</v>
       </c>
       <c r="L12" t="n">
         <v>30</v>
@@ -5023,31 +5023,31 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>30.806</v>
+        <v>61.612</v>
       </c>
       <c r="N16" t="n">
-        <v>124.806</v>
+        <v>128.806</v>
       </c>
       <c r="O16" t="n">
-        <v>217.806</v>
+        <v>220.806</v>
       </c>
       <c r="P16" t="n">
-        <v>312.806</v>
+        <v>317.806</v>
       </c>
       <c r="Q16" t="n">
-        <v>407.806</v>
+        <v>412.806</v>
       </c>
       <c r="R16" t="n">
-        <v>502.806</v>
+        <v>507.806</v>
       </c>
       <c r="S16" t="n">
-        <v>594.806</v>
+        <v>596.806</v>
       </c>
       <c r="T16" t="n">
-        <v>717.806</v>
+        <v>690.806</v>
       </c>
       <c r="U16" t="n">
-        <v>845.885</v>
+        <v>815.885</v>
       </c>
       <c r="V16" t="n">
         <v>190</v>
@@ -5088,31 +5088,31 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>30.806</v>
+        <v>61.612</v>
       </c>
       <c r="M17" t="n">
-        <v>126.191</v>
+        <v>131.576</v>
       </c>
       <c r="N17" t="n">
-        <v>218.191</v>
+        <v>220.191</v>
       </c>
       <c r="O17" t="n">
-        <v>311.797</v>
+        <v>375.071</v>
       </c>
       <c r="P17" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q17" t="n">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="R17" t="n">
-        <v>721.27</v>
+        <v>670</v>
       </c>
       <c r="S17" t="n">
-        <v>862.348</v>
+        <v>793.079</v>
       </c>
       <c r="T17" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -5200,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>265</v>
+        <v>325.608</v>
       </c>
       <c r="I19" t="n">
-        <v>369</v>
+        <v>432.585</v>
       </c>
       <c r="J19" t="n">
-        <v>574</v>
+        <v>602.178</v>
       </c>
       <c r="K19" t="n">
         <v>716</v>
@@ -5297,16 +5297,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>368</v>
+        <v>297.388</v>
       </c>
       <c r="H21" t="n">
-        <v>518.415</v>
+        <v>510.016</v>
       </c>
       <c r="I21" t="n">
-        <v>664.129</v>
+        <v>623.7140000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -5415,22 +5415,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>2157.079</v>
       </c>
       <c r="J2" t="n">
-        <v>102.828</v>
+        <v>2223.142</v>
       </c>
       <c r="K2" t="n">
-        <v>196.434</v>
+        <v>2518.142</v>
       </c>
       <c r="L2" t="n">
-        <v>2983</v>
+        <v>2995.806</v>
       </c>
       <c r="M2" t="n">
         <v>3084.662</v>
       </c>
       <c r="N2" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -5494,28 +5494,28 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25</v>
+        <v>40.133</v>
       </c>
       <c r="M4" t="n">
-        <v>213</v>
+        <v>218.831</v>
       </c>
       <c r="N4" t="n">
-        <v>311.602</v>
+        <v>320.205</v>
       </c>
       <c r="O4" t="n">
-        <v>1073</v>
+        <v>1080.81</v>
       </c>
       <c r="P4" t="n">
-        <v>1167.123</v>
+        <v>1171.246</v>
       </c>
       <c r="Q4" t="n">
-        <v>1261</v>
+        <v>1264.606</v>
       </c>
       <c r="R4" t="n">
-        <v>2791</v>
+        <v>2723.179</v>
       </c>
       <c r="S4" t="n">
-        <v>2897.763</v>
+        <v>2807.647</v>
       </c>
       <c r="T4" t="n">
         <v>100</v>
@@ -5538,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2698</v>
+        <v>2807.763</v>
       </c>
       <c r="G5" t="n">
-        <v>2807.647</v>
+        <v>2897.763</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -5590,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2504</v>
+        <v>131</v>
       </c>
       <c r="G7" t="n">
-        <v>2618.083</v>
+        <v>221</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -5666,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2216</v>
+        <v>34.166</v>
       </c>
       <c r="G9" t="n">
-        <v>2342.056</v>
+        <v>124.166</v>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -5692,13 +5692,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2119</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>2247.079</v>
+        <v>110</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -5798,25 +5798,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>415</v>
+        <v>239.541</v>
       </c>
       <c r="K2" t="n">
-        <v>690</v>
+        <v>435.355</v>
       </c>
       <c r="L2" t="n">
-        <v>725.495</v>
+        <v>718</v>
       </c>
       <c r="M2" t="n">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="N2" t="n">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="O2" t="n">
         <v>882</v>
       </c>
       <c r="P2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -5892,25 +5892,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>301.016</v>
       </c>
       <c r="K4" t="n">
-        <v>397</v>
+        <v>342.18</v>
       </c>
       <c r="L4" t="n">
-        <v>419.207</v>
+        <v>416.207</v>
       </c>
       <c r="M4" t="n">
-        <v>577</v>
+        <v>603.249</v>
       </c>
       <c r="N4" t="n">
-        <v>602.811</v>
+        <v>618.623</v>
       </c>
       <c r="O4" t="n">
         <v>644.434</v>
       </c>
       <c r="P4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -5939,22 +5939,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>143</v>
+        <v>242.056</v>
       </c>
       <c r="J5" t="n">
-        <v>214</v>
+        <v>252.056</v>
       </c>
       <c r="K5" t="n">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>469.99</v>
+        <v>711.213</v>
       </c>
       <c r="M5" t="n">
-        <v>512.006</v>
+        <v>711.1799999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34</v>
+        <v>54.616</v>
       </c>
       <c r="I6" t="n">
-        <v>272</v>
+        <v>283.18</v>
       </c>
       <c r="J6" t="n">
-        <v>322.311</v>
+        <v>399.361</v>
       </c>
       <c r="K6" t="n">
-        <v>364.327</v>
+        <v>402.811</v>
       </c>
       <c r="L6" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -6018,19 +6018,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>175</v>
+        <v>205.414</v>
       </c>
       <c r="I7" t="n">
-        <v>200.811</v>
+        <v>216.623</v>
       </c>
       <c r="J7" t="n">
-        <v>251.123</v>
+        <v>253.191</v>
       </c>
       <c r="K7" t="n">
-        <v>297.178</v>
+        <v>260.001</v>
       </c>
       <c r="L7" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -6050,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>206</v>
+        <v>426.18</v>
       </c>
       <c r="G8" t="n">
-        <v>249.541</v>
+        <v>436.18</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6112,19 +6112,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>824.1660000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="J2" t="n">
-        <v>1054</v>
+        <v>1071</v>
       </c>
       <c r="K2" t="n">
         <v>1162.028</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6147,16 +6147,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>812</v>
+        <v>468.591</v>
       </c>
       <c r="H3" t="n">
-        <v>1001</v>
+        <v>1004.606</v>
       </c>
       <c r="I3" t="n">
         <v>1110.209</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -6179,16 +6179,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>732</v>
+        <v>640</v>
       </c>
       <c r="H4" t="n">
-        <v>912</v>
+        <v>917.099</v>
       </c>
       <c r="I4" t="n">
         <v>1020.682</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -6226,28 +6226,28 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
-        <v>169</v>
+        <v>174.385</v>
       </c>
       <c r="N5" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O5" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P5" t="n">
-        <v>638</v>
+        <v>685.591</v>
       </c>
       <c r="Q5" t="n">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="R5" t="n">
-        <v>863.204</v>
+        <v>892.407</v>
       </c>
       <c r="S5" t="n">
-        <v>976.0069999999999</v>
+        <v>983.0069999999999</v>
       </c>
       <c r="T5" t="n">
         <v>120</v>
@@ -6323,19 +6323,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J7" t="n">
-        <v>262.828</v>
+        <v>265.657</v>
       </c>
       <c r="K7" t="n">
-        <v>534</v>
+        <v>673.401</v>
       </c>
       <c r="L7" t="n">
-        <v>626.236</v>
+        <v>802.299</v>
       </c>
       <c r="M7" t="n">
-        <v>735.236</v>
+        <v>875.15</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
@@ -6426,19 +6426,19 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>357</v>
+        <v>373.763</v>
       </c>
       <c r="I9" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J9" t="n">
-        <v>652</v>
+        <v>546.325</v>
       </c>
       <c r="K9" t="n">
-        <v>780.079</v>
+        <v>653.2619999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -6464,16 +6464,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="I10" t="n">
-        <v>453</v>
+        <v>456.071</v>
       </c>
       <c r="J10" t="n">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="K10" t="n">
-        <v>790.355</v>
+        <v>727.811</v>
       </c>
       <c r="L10" t="n">
         <v>30</v>
@@ -6499,16 +6499,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="H11" t="n">
-        <v>570.696</v>
+        <v>587.616</v>
       </c>
       <c r="I11" t="n">
-        <v>701.0069999999999</v>
+        <v>697.311</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -6691,28 +6691,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>69.857</v>
       </c>
       <c r="L2" t="n">
-        <v>849</v>
+        <v>795.023</v>
       </c>
       <c r="M2" t="n">
-        <v>872.454</v>
+        <v>825.802</v>
       </c>
       <c r="N2" t="n">
-        <v>896.0549999999999</v>
+        <v>841.604</v>
       </c>
       <c r="O2" t="n">
-        <v>912.0549999999999</v>
+        <v>850.002</v>
       </c>
       <c r="P2" t="n">
-        <v>964.54</v>
+        <v>938.973</v>
       </c>
       <c r="Q2" t="n">
-        <v>995.635</v>
+        <v>927.583</v>
       </c>
       <c r="R2" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -6750,31 +6750,31 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104</v>
+        <v>50.99</v>
       </c>
       <c r="M3" t="n">
-        <v>120.708</v>
+        <v>437.022</v>
       </c>
       <c r="N3" t="n">
-        <v>588</v>
+        <v>596.062</v>
       </c>
       <c r="O3" t="n">
-        <v>641</v>
+        <v>653.042</v>
       </c>
       <c r="P3" t="n">
-        <v>839</v>
+        <v>847.062</v>
       </c>
       <c r="Q3" t="n">
-        <v>855.708</v>
+        <v>862.4160000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>891.65</v>
+        <v>917.593</v>
       </c>
       <c r="S3" t="n">
         <v>935.191</v>
       </c>
       <c r="T3" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -6821,40 +6821,40 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>415</v>
+        <v>426.18</v>
       </c>
       <c r="P4" t="n">
-        <v>436</v>
+        <v>439.162</v>
       </c>
       <c r="Q4" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="R4" t="n">
-        <v>623.708</v>
+        <v>630.4160000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>638.807</v>
+        <v>643.9059999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>739</v>
+        <v>744.099</v>
       </c>
       <c r="U4" t="n">
-        <v>763.866</v>
+        <v>778.732</v>
       </c>
       <c r="V4" t="n">
-        <v>786.515</v>
+        <v>799.164</v>
       </c>
       <c r="W4" t="n">
-        <v>812.327</v>
+        <v>828.138</v>
       </c>
       <c r="X4" t="n">
-        <v>854.2329999999999</v>
+        <v>855.083</v>
       </c>
       <c r="Y4" t="n">
-        <v>892.0359999999999</v>
+        <v>868.0549999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -7203,34 +7203,34 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>228</v>
+        <v>120.325</v>
       </c>
       <c r="N9" t="n">
-        <v>290</v>
+        <v>299.434</v>
       </c>
       <c r="O9" t="n">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P9" t="n">
-        <v>403.657</v>
+        <v>409.314</v>
       </c>
       <c r="Q9" t="n">
-        <v>419.981</v>
+        <v>426.306</v>
       </c>
       <c r="R9" t="n">
-        <v>435.981</v>
+        <v>441.981</v>
       </c>
       <c r="S9" t="n">
-        <v>452.306</v>
+        <v>458.631</v>
       </c>
       <c r="T9" t="n">
-        <v>482.431</v>
+        <v>502.555</v>
       </c>
       <c r="U9" t="n">
         <v>524.6799999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -7309,28 +7309,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>214</v>
+        <v>232.028</v>
       </c>
       <c r="L11" t="n">
-        <v>236</v>
+        <v>245.849</v>
       </c>
       <c r="M11" t="n">
-        <v>254.485</v>
+        <v>262.971</v>
       </c>
       <c r="N11" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="O11" t="n">
-        <v>362.189</v>
+        <v>421.881</v>
       </c>
       <c r="P11" t="n">
-        <v>392.438</v>
+        <v>404.563</v>
       </c>
       <c r="Q11" t="n">
-        <v>444.864</v>
+        <v>441.178</v>
       </c>
       <c r="R11" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -7430,19 +7430,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>183</v>
+        <v>204.26</v>
       </c>
       <c r="I13" t="n">
-        <v>272</v>
+        <v>297.616</v>
       </c>
       <c r="J13" t="n">
-        <v>288.083</v>
+        <v>320.1</v>
       </c>
       <c r="K13" t="n">
-        <v>329.973</v>
+        <v>351.94</v>
       </c>
       <c r="L13" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -7471,22 +7471,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>53.472</v>
       </c>
       <c r="J14" t="n">
-        <v>54.601</v>
+        <v>68.203</v>
       </c>
       <c r="K14" t="n">
-        <v>190</v>
+        <v>220.265</v>
       </c>
       <c r="L14" t="n">
-        <v>250.249</v>
+        <v>243.652</v>
       </c>
       <c r="M14" t="n">
-        <v>290.663</v>
+        <v>253</v>
       </c>
       <c r="N14" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -7515,22 +7515,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>69.759</v>
       </c>
       <c r="J15" t="n">
-        <v>81.571</v>
+        <v>108.141</v>
       </c>
       <c r="K15" t="n">
-        <v>127.473</v>
+        <v>253.791</v>
       </c>
       <c r="L15" t="n">
-        <v>197.681</v>
+        <v>216.623</v>
       </c>
       <c r="M15" t="n">
-        <v>239.697</v>
+        <v>242.827</v>
       </c>
       <c r="N15" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -7550,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.495</v>
+        <v>109</v>
       </c>
       <c r="G16" t="n">
-        <v>60.99</v>
+        <v>119</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7641,16 +7641,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>812</v>
+        <v>845.616</v>
       </c>
       <c r="H3" t="n">
-        <v>925.345</v>
+        <v>919</v>
       </c>
       <c r="I3" t="n">
-        <v>1034.027</v>
+        <v>1025.682</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -7673,16 +7673,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="H4" t="n">
-        <v>844.672</v>
+        <v>828</v>
       </c>
       <c r="I4" t="n">
-        <v>955.287</v>
+        <v>927.1660000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -7886,7 +7886,7 @@
         <v>2354.173</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -7989,40 +7989,40 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>157</v>
+        <v>166.22</v>
       </c>
       <c r="P3" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q3" t="n">
-        <v>375</v>
+        <v>394.345</v>
       </c>
       <c r="R3" t="n">
-        <v>694</v>
+        <v>524</v>
       </c>
       <c r="S3" t="n">
-        <v>719</v>
+        <v>627.284</v>
       </c>
       <c r="T3" t="n">
-        <v>751.361</v>
+        <v>666.361</v>
       </c>
       <c r="U3" t="n">
-        <v>768.432</v>
+        <v>680.071</v>
       </c>
       <c r="V3" t="n">
-        <v>854.095</v>
+        <v>857.664</v>
       </c>
       <c r="W3" t="n">
-        <v>874.726</v>
+        <v>813.26</v>
       </c>
       <c r="X3" t="n">
-        <v>896.891</v>
+        <v>836.961</v>
       </c>
       <c r="Y3" t="n">
-        <v>952.168</v>
+        <v>880.073</v>
       </c>
       <c r="Z3" t="n">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -8125,34 +8125,34 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>11.18</v>
+        <v>22.361</v>
       </c>
       <c r="N5" t="n">
-        <v>152</v>
+        <v>160.544</v>
       </c>
       <c r="O5" t="n">
-        <v>308</v>
+        <v>316.062</v>
       </c>
       <c r="P5" t="n">
-        <v>397</v>
+        <v>376.804</v>
       </c>
       <c r="Q5" t="n">
-        <v>416.055</v>
+        <v>387</v>
       </c>
       <c r="R5" t="n">
-        <v>645</v>
+        <v>565.028</v>
       </c>
       <c r="S5" t="n">
-        <v>676.213</v>
+        <v>670.029</v>
       </c>
       <c r="T5" t="n">
-        <v>703</v>
+        <v>714.1799999999999</v>
       </c>
       <c r="U5" t="n">
         <v>753.311</v>
       </c>
       <c r="V5" t="n">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -8243,28 +8243,28 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.765</v>
+        <v>78.102</v>
       </c>
       <c r="L7" t="n">
-        <v>392</v>
+        <v>277.434</v>
       </c>
       <c r="M7" t="n">
-        <v>557</v>
+        <v>352.464</v>
       </c>
       <c r="N7" t="n">
-        <v>588.5410000000001</v>
+        <v>547.198</v>
       </c>
       <c r="O7" t="n">
-        <v>636.659</v>
+        <v>667.561</v>
       </c>
       <c r="P7" t="n">
-        <v>730.522</v>
+        <v>790.484</v>
       </c>
       <c r="Q7" t="n">
-        <v>791.6</v>
+        <v>783.821</v>
       </c>
       <c r="R7" t="n">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -8305,34 +8305,34 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>260</v>
+        <v>277.889</v>
       </c>
       <c r="N8" t="n">
-        <v>365</v>
+        <v>381.125</v>
       </c>
       <c r="O8" t="n">
-        <v>382.211</v>
+        <v>389.422</v>
       </c>
       <c r="P8" t="n">
-        <v>401.155</v>
+        <v>410.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>425.048</v>
+        <v>441.155</v>
       </c>
       <c r="R8" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="S8" t="n">
-        <v>505.403</v>
+        <v>511.806</v>
       </c>
       <c r="T8" t="n">
-        <v>561.976</v>
+        <v>719.962</v>
       </c>
       <c r="U8" t="n">
-        <v>603.598</v>
+        <v>730.926</v>
       </c>
       <c r="V8" t="n">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -8379,40 +8379,40 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>105</v>
+        <v>124.235</v>
       </c>
       <c r="P9" t="n">
-        <v>191</v>
+        <v>199.062</v>
       </c>
       <c r="Q9" t="n">
-        <v>395</v>
+        <v>407.042</v>
       </c>
       <c r="R9" t="n">
-        <v>413.485</v>
+        <v>421.971</v>
       </c>
       <c r="S9" t="n">
-        <v>432.029</v>
+        <v>440.573</v>
       </c>
       <c r="T9" t="n">
-        <v>457.294</v>
+        <v>472.558</v>
       </c>
       <c r="U9" t="n">
-        <v>470.899</v>
+        <v>545.294</v>
       </c>
       <c r="V9" t="n">
-        <v>518.635</v>
+        <v>555.992</v>
       </c>
       <c r="W9" t="n">
-        <v>541.635</v>
+        <v>572.143</v>
       </c>
       <c r="X9" t="n">
-        <v>562.8150000000001</v>
+        <v>591.504</v>
       </c>
       <c r="Y9" t="n">
-        <v>631.3390000000001</v>
+        <v>648.847</v>
       </c>
       <c r="Z9" t="n">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -8456,37 +8456,37 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>29.53</v>
       </c>
       <c r="O10" t="n">
-        <v>167</v>
+        <v>181.422</v>
       </c>
       <c r="P10" t="n">
-        <v>268</v>
+        <v>275.071</v>
       </c>
       <c r="Q10" t="n">
-        <v>291.038</v>
+        <v>304.077</v>
       </c>
       <c r="R10" t="n">
-        <v>326.218</v>
+        <v>351.397</v>
       </c>
       <c r="S10" t="n">
-        <v>341.603</v>
+        <v>346.988</v>
       </c>
       <c r="T10" t="n">
-        <v>396.88</v>
+        <v>437.951</v>
       </c>
       <c r="U10" t="n">
-        <v>411.88</v>
+        <v>410.777</v>
       </c>
       <c r="V10" t="n">
-        <v>462.191</v>
+        <v>468.767</v>
       </c>
       <c r="W10" t="n">
-        <v>505.732</v>
+        <v>473.272</v>
       </c>
       <c r="X10" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -8512,19 +8512,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="I11" t="n">
-        <v>359</v>
+        <v>404.071</v>
       </c>
       <c r="J11" t="n">
-        <v>406.216</v>
+        <v>579.361</v>
       </c>
       <c r="K11" t="n">
-        <v>461.393</v>
+        <v>585.028</v>
       </c>
       <c r="L11" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -8562,31 +8562,31 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>60</v>
+        <v>86.023</v>
       </c>
       <c r="M12" t="n">
-        <v>85.297</v>
+        <v>71.071</v>
       </c>
       <c r="N12" t="n">
-        <v>100.297</v>
+        <v>84</v>
       </c>
       <c r="O12" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P12" t="n">
-        <v>260.734</v>
+        <v>294.469</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.84</v>
+        <v>336.946</v>
       </c>
       <c r="R12" t="n">
-        <v>323.274</v>
+        <v>332.708</v>
       </c>
       <c r="S12" t="n">
         <v>374.505</v>
       </c>
       <c r="T12" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -8624,31 +8624,31 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>195</v>
+        <v>228.526</v>
       </c>
       <c r="M13" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="N13" t="n">
-        <v>256.128</v>
+        <v>291.257</v>
       </c>
       <c r="O13" t="n">
-        <v>299.128</v>
+        <v>332.128</v>
       </c>
       <c r="P13" t="n">
-        <v>311.128</v>
+        <v>313.128</v>
       </c>
       <c r="Q13" t="n">
-        <v>326.514</v>
+        <v>331.899</v>
       </c>
       <c r="R13" t="n">
-        <v>354.624</v>
+        <v>380.385</v>
       </c>
       <c r="S13" t="n">
-        <v>407.566</v>
+        <v>420</v>
       </c>
       <c r="T13" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14">
@@ -8683,28 +8683,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>35.355</v>
+        <v>70.711</v>
       </c>
       <c r="L14" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M14" t="n">
-        <v>141.249</v>
+        <v>167.498</v>
       </c>
       <c r="N14" t="n">
-        <v>246</v>
+        <v>324.638</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P14" t="n">
-        <v>275.385</v>
+        <v>282.806</v>
       </c>
       <c r="Q14" t="n">
-        <v>337.587</v>
+        <v>336.692</v>
       </c>
       <c r="R14" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -8736,25 +8736,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.736</v>
+        <v>75.47199999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L15" t="n">
-        <v>128</v>
+        <v>259.918</v>
       </c>
       <c r="M15" t="n">
-        <v>193.036</v>
+        <v>205.18</v>
       </c>
       <c r="N15" t="n">
-        <v>210.036</v>
+        <v>214</v>
       </c>
       <c r="O15" t="n">
-        <v>277.045</v>
+        <v>276.009</v>
       </c>
       <c r="P15" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -8777,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.051</v>
+        <v>120.616</v>
       </c>
       <c r="H16" t="n">
-        <v>80</v>
+        <v>167.723</v>
       </c>
       <c r="I16" t="n">
-        <v>141.478</v>
+        <v>176.321</v>
       </c>
       <c r="J16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8887,64 +8887,64 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X2" t="n">
-        <v>102.828</v>
+        <v>105.657</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.434</v>
+        <v>200.04</v>
       </c>
       <c r="Z2" t="n">
-        <v>289.262</v>
+        <v>292.091</v>
       </c>
       <c r="AA2" t="n">
-        <v>398</v>
+        <v>401.606</v>
       </c>
       <c r="AB2" t="n">
-        <v>497</v>
+        <v>505.944</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.325</v>
+        <v>599.649</v>
       </c>
       <c r="AD2" t="n">
-        <v>685.325</v>
+        <v>1260.071</v>
       </c>
       <c r="AE2" t="n">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="AF2" t="n">
-        <v>1447</v>
+        <v>1457.77</v>
       </c>
       <c r="AG2" t="n">
-        <v>1545.062</v>
+        <v>1553.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1643</v>
+        <v>1756.765</v>
       </c>
       <c r="AI2" t="n">
-        <v>2504</v>
+        <v>2223.071</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2601.211</v>
+        <v>2613.806</v>
       </c>
       <c r="AK2" t="n">
-        <v>2698.282</v>
+        <v>2705.142</v>
       </c>
       <c r="AL2" t="n">
-        <v>2791.282</v>
+        <v>2794.071</v>
       </c>
       <c r="AM2" t="n">
-        <v>2887.365</v>
+        <v>2893.237</v>
       </c>
       <c r="AN2" t="n">
-        <v>2983.022</v>
+        <v>2988.657</v>
       </c>
       <c r="AO2" t="n">
-        <v>3084.684</v>
+        <v>3084.662</v>
       </c>
       <c r="AP2" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -8964,10 +8964,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2856</v>
+        <v>2065.357</v>
       </c>
       <c r="G3" t="n">
-        <v>2956.77</v>
+        <v>2155.357</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -9020,43 +9020,43 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25</v>
+        <v>40.133</v>
       </c>
       <c r="Q4" t="n">
-        <v>213</v>
+        <v>218.831</v>
       </c>
       <c r="R4" t="n">
-        <v>311.602</v>
+        <v>320.205</v>
       </c>
       <c r="S4" t="n">
-        <v>1073</v>
+        <v>1080.81</v>
       </c>
       <c r="T4" t="n">
-        <v>1167.123</v>
+        <v>1171.246</v>
       </c>
       <c r="U4" t="n">
-        <v>1261</v>
+        <v>1264.606</v>
       </c>
       <c r="V4" t="n">
-        <v>2405</v>
+        <v>2158.825</v>
       </c>
       <c r="W4" t="n">
-        <v>2535.792</v>
+        <v>2530.249</v>
       </c>
       <c r="X4" t="n">
-        <v>2628.792</v>
+        <v>2576</v>
       </c>
       <c r="Y4" t="n">
-        <v>2721.792</v>
+        <v>2669</v>
       </c>
       <c r="Z4" t="n">
-        <v>2813.792</v>
+        <v>2760</v>
       </c>
       <c r="AA4" t="n">
-        <v>2922.474</v>
+        <v>2866.682</v>
       </c>
       <c r="AB4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -9085,22 +9085,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>303</v>
+        <v>323.616</v>
       </c>
       <c r="J5" t="n">
-        <v>1253</v>
+        <v>2131.926</v>
       </c>
       <c r="K5" t="n">
-        <v>2292</v>
+        <v>2296.472</v>
       </c>
       <c r="L5" t="n">
-        <v>2425.738</v>
+        <v>2868.806</v>
       </c>
       <c r="M5" t="n">
-        <v>2549.04</v>
+        <v>2956.77</v>
       </c>
       <c r="N5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -9123,13 +9123,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2105</v>
+        <v>2344.302</v>
       </c>
       <c r="H6" t="n">
-        <v>2245.99</v>
+        <v>2409</v>
       </c>
       <c r="I6" t="n">
-        <v>2372.046</v>
+        <v>2525.806</v>
       </c>
       <c r="J6" t="n">
         <v>50</v>
@@ -9155,16 +9155,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2009</v>
+        <v>718.526</v>
       </c>
       <c r="H7" t="n">
-        <v>2159.671</v>
+        <v>2533.53</v>
       </c>
       <c r="I7" t="n">
-        <v>2287.75</v>
+        <v>2618.083</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -9187,16 +9187,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1913</v>
+        <v>1944.048</v>
       </c>
       <c r="H8" t="n">
-        <v>2068.765</v>
+        <v>2014.385</v>
       </c>
       <c r="I8" t="n">
-        <v>2198.122</v>
+        <v>2124.71</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -9275,28 +9275,28 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>781</v>
+        <v>814.5410000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="M10" t="n">
-        <v>971.831</v>
+        <v>977.662</v>
       </c>
       <c r="N10" t="n">
-        <v>1063.831</v>
+        <v>1065.831</v>
       </c>
       <c r="O10" t="n">
-        <v>1158.831</v>
+        <v>1163.831</v>
       </c>
       <c r="P10" t="n">
-        <v>1742</v>
+        <v>1668.239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1867.355</v>
+        <v>1763.529</v>
       </c>
       <c r="R10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9349,16 +9349,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>64.03100000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>159</v>
+        <v>180.213</v>
       </c>
       <c r="I2" t="n">
         <v>180.18</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -9387,22 +9387,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>129.016</v>
       </c>
       <c r="J3" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K3" t="n">
-        <v>153</v>
+        <v>167.142</v>
       </c>
       <c r="L3" t="n">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M3" t="n">
         <v>221.541</v>
       </c>
       <c r="N3" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -9422,13 +9422,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>161</v>
+        <v>157.623</v>
       </c>
       <c r="G4" t="n">
-        <v>186.232</v>
+        <v>167.623</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -9451,16 +9451,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>104.155</v>
       </c>
       <c r="H5" t="n">
-        <v>157</v>
+        <v>168.18</v>
       </c>
       <c r="I5" t="n">
         <v>197.414</v>
       </c>
       <c r="J5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>104.056</v>
       </c>
       <c r="I6" t="n">
-        <v>70.44</v>
+        <v>108.18</v>
       </c>
       <c r="J6" t="n">
-        <v>149</v>
+        <v>163.142</v>
       </c>
       <c r="K6" t="n">
         <v>184</v>
       </c>
       <c r="L6" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -9524,19 +9524,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>100.541</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>91.142</v>
       </c>
       <c r="J7" t="n">
-        <v>129.721</v>
+        <v>139</v>
       </c>
       <c r="K7" t="n">
-        <v>165.216</v>
+        <v>159.495</v>
       </c>
       <c r="L7" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -9588,13 +9588,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>97</v>
+        <v>91.414</v>
       </c>
       <c r="G9" t="n">
-        <v>133.926</v>
+        <v>101.414</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -9617,16 +9617,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>132.847</v>
+        <v>177.643</v>
       </c>
       <c r="I10" t="n">
-        <v>174.469</v>
+        <v>186.232</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -9646,13 +9646,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>97</v>
+        <v>110.18</v>
       </c>
       <c r="G11" t="n">
-        <v>139.016</v>
+        <v>120.18</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -9672,13 +9672,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>32.016</v>
+        <v>80.02800000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>74.03100000000001</v>
+        <v>90.02800000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -9698,13 +9698,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76</v>
+        <v>102.811</v>
       </c>
       <c r="G13" t="n">
-        <v>118.016</v>
+        <v>112.811</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -9724,13 +9724,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>67</v>
+        <v>54.616</v>
       </c>
       <c r="G14" t="n">
-        <v>110.541</v>
+        <v>64.616</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -9753,10 +9753,10 @@
         <v>68</v>
       </c>
       <c r="G15" t="n">
-        <v>114.056</v>
+        <v>78</v>
       </c>
       <c r="H15" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9809,16 +9809,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95</v>
+        <v>111.385</v>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>211.314</v>
       </c>
       <c r="I2" t="n">
         <v>219.055</v>
       </c>
       <c r="J2" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -9847,22 +9847,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>100.93</v>
       </c>
       <c r="J3" t="n">
-        <v>54.28</v>
+        <v>160.235</v>
       </c>
       <c r="K3" t="n">
-        <v>161</v>
+        <v>176.556</v>
       </c>
       <c r="L3" t="n">
-        <v>182</v>
+        <v>190.062</v>
       </c>
       <c r="M3" t="n">
         <v>213.095</v>
       </c>
       <c r="N3" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -9888,19 +9888,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>117.554</v>
       </c>
       <c r="I4" t="n">
-        <v>132</v>
+        <v>153.633</v>
       </c>
       <c r="J4" t="n">
-        <v>182</v>
+        <v>195.038</v>
       </c>
       <c r="K4" t="n">
         <v>213.095</v>
       </c>
       <c r="L4" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -9952,19 +9952,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>64.03100000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>135</v>
+        <v>153.385</v>
       </c>
       <c r="J6" t="n">
-        <v>188</v>
+        <v>179.525</v>
       </c>
       <c r="K6" t="n">
-        <v>218.248</v>
+        <v>202.676</v>
       </c>
       <c r="L6" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -9987,16 +9987,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>159</v>
+        <v>166.176</v>
       </c>
       <c r="H7" t="n">
-        <v>185</v>
+        <v>200.811</v>
       </c>
       <c r="I7" t="n">
         <v>219.042</v>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -10022,19 +10022,19 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>85</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>149</v>
+        <v>164.811</v>
       </c>
       <c r="J8" t="n">
-        <v>179.248</v>
+        <v>182</v>
       </c>
       <c r="K8" t="n">
-        <v>222.789</v>
+        <v>215.541</v>
       </c>
       <c r="L8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -10060,19 +10060,19 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>52</v>
+        <v>82.801</v>
       </c>
       <c r="I9" t="n">
-        <v>87</v>
+        <v>113.907</v>
       </c>
       <c r="J9" t="n">
-        <v>162</v>
+        <v>168.708</v>
       </c>
       <c r="K9" t="n">
         <v>190.028</v>
       </c>
       <c r="L9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -10098,19 +10098,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>112.042</v>
       </c>
       <c r="I10" t="n">
-        <v>133</v>
+        <v>139.083</v>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>165.403</v>
       </c>
       <c r="K10" t="n">
-        <v>195.612</v>
+        <v>180.18</v>
       </c>
       <c r="L10" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -10142,25 +10142,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39</v>
+        <v>35.804</v>
       </c>
       <c r="K11" t="n">
-        <v>83</v>
+        <v>85.236</v>
       </c>
       <c r="L11" t="n">
-        <v>98.657</v>
+        <v>104.314</v>
       </c>
       <c r="M11" t="n">
-        <v>134</v>
+        <v>163.162</v>
       </c>
       <c r="N11" t="n">
-        <v>162.028</v>
+        <v>193.831</v>
       </c>
       <c r="O11" t="n">
-        <v>202.442</v>
+        <v>218.248</v>
       </c>
       <c r="P11" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -10186,19 +10186,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>63</v>
+        <v>62.166</v>
       </c>
       <c r="I12" t="n">
-        <v>80.071</v>
+        <v>86</v>
       </c>
       <c r="J12" t="n">
-        <v>179</v>
+        <v>149.345</v>
       </c>
       <c r="K12" t="n">
-        <v>208.698</v>
+        <v>167.623</v>
       </c>
       <c r="L12" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -10221,16 +10221,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124</v>
+        <v>116.661</v>
       </c>
       <c r="H13" t="n">
-        <v>146.042</v>
+        <v>204.318</v>
       </c>
       <c r="I13" t="n">
-        <v>177.419</v>
+        <v>208.698</v>
       </c>
       <c r="J13" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -10306,25 +10306,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>53.866</v>
       </c>
       <c r="K15" t="n">
-        <v>58</v>
+        <v>64.708</v>
       </c>
       <c r="L15" t="n">
-        <v>76</v>
+        <v>83.616</v>
       </c>
       <c r="M15" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N15" t="n">
-        <v>141.463</v>
+        <v>150.125</v>
       </c>
       <c r="O15" t="n">
-        <v>185.639</v>
+        <v>165.213</v>
       </c>
       <c r="P15" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -10353,22 +10353,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J16" t="n">
-        <v>101</v>
+        <v>109.207</v>
       </c>
       <c r="K16" t="n">
-        <v>132</v>
+        <v>142.083</v>
       </c>
       <c r="L16" t="n">
-        <v>150.246</v>
+        <v>156.071</v>
       </c>
       <c r="M16" t="n">
-        <v>185.246</v>
+        <v>183.597</v>
       </c>
       <c r="N16" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -10441,16 +10441,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H18" t="n">
-        <v>140</v>
+        <v>149.211</v>
       </c>
       <c r="I18" t="n">
-        <v>172.804</v>
+        <v>173.378</v>
       </c>
       <c r="J18" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -10479,22 +10479,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>18.385</v>
+        <v>36.77</v>
       </c>
       <c r="J19" t="n">
-        <v>38.583</v>
+        <v>48.781</v>
       </c>
       <c r="K19" t="n">
-        <v>61</v>
+        <v>70.22</v>
       </c>
       <c r="L19" t="n">
-        <v>97</v>
+        <v>108.28</v>
       </c>
       <c r="M19" t="n">
-        <v>135.862</v>
+        <v>134.195</v>
       </c>
       <c r="N19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -10561,16 +10561,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>116</v>
+        <v>153.056</v>
       </c>
       <c r="H21" t="n">
-        <v>147.541</v>
+        <v>153.198</v>
       </c>
       <c r="I21" t="n">
-        <v>198.577</v>
+        <v>194.037</v>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -10596,19 +10596,19 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35</v>
+        <v>57.472</v>
       </c>
       <c r="I22" t="n">
-        <v>69</v>
+        <v>74.38500000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>125.819</v>
+        <v>159.698</v>
       </c>
       <c r="K22" t="n">
-        <v>171.874</v>
+        <v>172.804</v>
       </c>
       <c r="L22" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -10637,22 +10637,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>55</v>
+        <v>85.205</v>
       </c>
       <c r="J23" t="n">
-        <v>78</v>
+        <v>84.062</v>
       </c>
       <c r="K23" t="n">
-        <v>108</v>
+        <v>120.042</v>
       </c>
       <c r="L23" t="n">
-        <v>147.017</v>
+        <v>176.034</v>
       </c>
       <c r="M23" t="n">
         <v>191.017</v>
       </c>
       <c r="N23" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -10678,19 +10678,19 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>61.759</v>
       </c>
       <c r="I24" t="n">
-        <v>94</v>
+        <v>96.828</v>
       </c>
       <c r="J24" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" t="n">
-        <v>167.623</v>
+        <v>148.361</v>
       </c>
       <c r="L24" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -10710,10 +10710,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>124</v>
+        <v>45.325</v>
       </c>
       <c r="G25" t="n">
-        <v>159.495</v>
+        <v>55.325</v>
       </c>
       <c r="H25" t="n">
         <v>16</v>
@@ -10818,13 +10818,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="G28" t="n">
-        <v>127.554</v>
+        <v>52</v>
       </c>
       <c r="H28" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -10847,16 +10847,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>104.155</v>
       </c>
       <c r="H29" t="n">
-        <v>94</v>
+        <v>112.045</v>
       </c>
       <c r="I29" t="n">
-        <v>139.355</v>
+        <v>135.331</v>
       </c>
       <c r="J29" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -10879,16 +10879,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>61.155</v>
+      </c>
+      <c r="H30" t="n">
+        <v>67.72799999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>88.324</v>
+      </c>
+      <c r="J30" t="n">
         <v>32</v>
-      </c>
-      <c r="H30" t="n">
-        <v>60.111</v>
-      </c>
-      <c r="I30" t="n">
-        <v>104.316</v>
-      </c>
-      <c r="J30" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -10972,13 +10972,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>32.016</v>
+        <v>110.18</v>
       </c>
       <c r="G33" t="n">
-        <v>74.03100000000001</v>
+        <v>120.18</v>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>77</v>
+        <v>99.47199999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>126.661</v>
+        <v>109.472</v>
       </c>
       <c r="H36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -11094,13 +11094,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.4</v>
+        <v>140.971</v>
       </c>
       <c r="G37" t="n">
-        <v>92.801</v>
+        <v>150.971</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -11120,13 +11120,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>51</v>
+        <v>63.314</v>
       </c>
       <c r="G38" t="n">
-        <v>110.93</v>
+        <v>73.31399999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -11188,25 +11188,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>81.31100000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>95</v>
+        <v>98.071</v>
       </c>
       <c r="L2" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M2" t="n">
-        <v>141</v>
+        <v>140.413</v>
       </c>
       <c r="N2" t="n">
-        <v>158.071</v>
+        <v>148</v>
       </c>
       <c r="O2" t="n">
-        <v>206.15</v>
+        <v>193.079</v>
       </c>
       <c r="P2" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -11355,22 +11355,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>35.355</v>
+        <v>70.711</v>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>63.831</v>
       </c>
       <c r="K6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" t="n">
-        <v>132.09</v>
+        <v>160.715</v>
       </c>
       <c r="M6" t="n">
-        <v>181.447</v>
+        <v>164.659</v>
       </c>
       <c r="N6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>91</v>
+        <v>177.056</v>
       </c>
       <c r="G7" t="n">
-        <v>140.051</v>
+        <v>187.056</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -11448,13 +11448,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>80.806</v>
       </c>
       <c r="G9" t="n">
-        <v>91.31100000000001</v>
+        <v>90.806</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -11563,40 +11563,40 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>152</v>
+        <v>113.311</v>
       </c>
       <c r="P2" t="n">
-        <v>388</v>
+        <v>398.198</v>
       </c>
       <c r="Q2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="R2" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="S2" t="n">
-        <v>644</v>
+        <v>479.602</v>
       </c>
       <c r="T2" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="U2" t="n">
-        <v>730.17</v>
+        <v>777.34</v>
       </c>
       <c r="V2" t="n">
-        <v>751.35</v>
+        <v>762.5309999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>799.938</v>
+        <v>838.525</v>
       </c>
       <c r="X2" t="n">
-        <v>820.378</v>
+        <v>830.818</v>
       </c>
       <c r="Y2" t="n">
         <v>875.655</v>
       </c>
       <c r="Z2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -11619,16 +11619,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>519</v>
+        <v>380.177</v>
       </c>
       <c r="H3" t="n">
-        <v>569.6079999999999</v>
+        <v>547.198</v>
       </c>
       <c r="I3" t="n">
-        <v>614.665</v>
+        <v>582.057</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -11663,28 +11663,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>223</v>
+        <v>255.388</v>
       </c>
       <c r="L4" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M4" t="n">
-        <v>371</v>
+        <v>340.195</v>
       </c>
       <c r="N4" t="n">
-        <v>417.056</v>
+        <v>385.198</v>
       </c>
       <c r="O4" t="n">
-        <v>437.826</v>
+        <v>558.051</v>
       </c>
       <c r="P4" t="n">
-        <v>530.796</v>
+        <v>685.231</v>
       </c>
       <c r="Q4" t="n">
-        <v>580.153</v>
+        <v>690.056</v>
       </c>
       <c r="R4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -11757,13 +11757,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>73</v>
+        <v>182.806</v>
       </c>
       <c r="H6" t="n">
-        <v>201</v>
+        <v>412.761</v>
       </c>
       <c r="I6" t="n">
-        <v>256.044</v>
+        <v>414.541</v>
       </c>
       <c r="J6" t="n">
         <v>50</v>
@@ -11878,19 +11878,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92</v>
+        <v>125.311</v>
       </c>
       <c r="I3" t="n">
-        <v>124</v>
+        <v>129.831</v>
       </c>
       <c r="J3" t="n">
-        <v>139</v>
+        <v>142.606</v>
       </c>
       <c r="K3" t="n">
         <v>193.204</v>
       </c>
       <c r="L3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -11960,25 +11960,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>64</v>
+        <v>96.38800000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L5" t="n">
-        <v>94.38500000000001</v>
+        <v>177.091</v>
       </c>
       <c r="M5" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N5" t="n">
-        <v>168.44</v>
+        <v>175</v>
       </c>
       <c r="O5" t="n">
-        <v>223.717</v>
+        <v>223.277</v>
       </c>
       <c r="P5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -12042,16 +12042,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="I7" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J7" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K7" t="n">
-        <v>206.044</v>
+        <v>193.057</v>
       </c>
       <c r="L7" t="n">
         <v>60</v>
@@ -12080,16 +12080,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>116</v>
+        <v>173.523</v>
       </c>
       <c r="I8" t="n">
-        <v>139</v>
+        <v>147.361</v>
       </c>
       <c r="J8" t="n">
-        <v>154.385</v>
+        <v>156.951</v>
       </c>
       <c r="K8" t="n">
-        <v>215.464</v>
+        <v>212.644</v>
       </c>
       <c r="L8" t="n">
         <v>70</v>
@@ -12124,25 +12124,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>35.355</v>
+        <v>70.711</v>
       </c>
       <c r="K9" t="n">
-        <v>48.355</v>
+        <v>51.355</v>
       </c>
       <c r="L9" t="n">
-        <v>63.355</v>
+        <v>68.355</v>
       </c>
       <c r="M9" t="n">
-        <v>75.355</v>
+        <v>77.355</v>
       </c>
       <c r="N9" t="n">
-        <v>135.445</v>
+        <v>107.716</v>
       </c>
       <c r="O9" t="n">
-        <v>184.803</v>
+        <v>140.077</v>
       </c>
       <c r="P9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -12168,19 +12168,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>86.023</v>
       </c>
       <c r="I10" t="n">
-        <v>75</v>
+        <v>80.831</v>
       </c>
       <c r="J10" t="n">
-        <v>90.38500000000001</v>
+        <v>98.40300000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>140.696</v>
+        <v>132.806</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -12206,16 +12206,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>37.736</v>
+        <v>75.47199999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>50.736</v>
+        <v>53.736</v>
       </c>
       <c r="J11" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K11" t="n">
-        <v>140.051</v>
+        <v>158.357</v>
       </c>
       <c r="L11" t="n">
         <v>40</v>
@@ -12238,13 +12238,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>104</v>
+        <v>151.341</v>
       </c>
       <c r="G12" t="n">
-        <v>152.053</v>
+        <v>161.341</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -12299,16 +12299,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>43.012</v>
+        <v>73.056</v>
       </c>
       <c r="H14" t="n">
-        <v>115.661</v>
+        <v>137</v>
       </c>
       <c r="I14" t="n">
-        <v>184.185</v>
+        <v>141.051</v>
       </c>
       <c r="J14" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
@@ -481,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L2" t="n">
-        <v>127.416</v>
+        <v>120.708</v>
       </c>
       <c r="M2" t="n">
-        <v>193.509</v>
+        <v>162.109</v>
       </c>
       <c r="N2" t="n">
-        <v>687.434</v>
+        <v>678</v>
       </c>
       <c r="O2" t="n">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="P2" t="n">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="Q2" t="n">
         <v>882</v>
@@ -534,19 +534,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>426.18</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>617.1799999999999</v>
+        <v>606</v>
       </c>
       <c r="L3" t="n">
-        <v>751.028</v>
+        <v>733</v>
       </c>
       <c r="M3" t="n">
-        <v>796.409</v>
+        <v>773</v>
       </c>
       <c r="N3" t="n">
-        <v>839.321</v>
+        <v>811.16</v>
       </c>
       <c r="O3" t="n">
         <v>836.3920000000001</v>
@@ -590,25 +590,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>371.18</v>
+        <v>360</v>
       </c>
       <c r="M4" t="n">
-        <v>424.811</v>
+        <v>409</v>
       </c>
       <c r="N4" t="n">
-        <v>427.485</v>
+        <v>423.243</v>
       </c>
       <c r="O4" t="n">
-        <v>611.1950000000001</v>
+        <v>588</v>
       </c>
       <c r="P4" t="n">
-        <v>705.811</v>
+        <v>690</v>
       </c>
       <c r="Q4" t="n">
-        <v>788.566</v>
+        <v>744.283</v>
       </c>
       <c r="R4" t="n">
-        <v>810.852</v>
+        <v>782.567</v>
       </c>
       <c r="S4" t="n">
         <v>833.604</v>
@@ -646,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.759</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>534.28</v>
+        <v>527</v>
       </c>
       <c r="L5" t="n">
-        <v>565.284</v>
+        <v>551.1420000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>605.8630000000001</v>
+        <v>583.503</v>
       </c>
       <c r="N5" t="n">
-        <v>625.126</v>
+        <v>609.314</v>
       </c>
       <c r="O5" t="n">
         <v>644.809</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>392.811</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L6" t="n">
-        <v>431.413</v>
+        <v>419.207</v>
       </c>
       <c r="M6" t="n">
-        <v>524.434</v>
+        <v>515</v>
       </c>
       <c r="N6" t="n">
-        <v>615.022</v>
+        <v>570.011</v>
       </c>
       <c r="O6" t="n">
         <v>596.982</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H10" t="n">
-        <v>269.305</v>
+        <v>253.652</v>
       </c>
       <c r="I10" t="n">
         <v>293.485</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99</v>
+        <v>25.495</v>
       </c>
       <c r="I11" t="n">
-        <v>53.934</v>
+        <v>44.715</v>
       </c>
       <c r="J11" t="n">
-        <v>630.63</v>
+        <v>620</v>
       </c>
       <c r="K11" t="n">
         <v>664.176</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>140.971</v>
+        <v>124</v>
       </c>
       <c r="H2" t="n">
-        <v>167.325</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
         <v>186.232</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03100000000001</v>
+        <v>32.016</v>
       </c>
       <c r="H4" t="n">
-        <v>180.213</v>
+        <v>159</v>
       </c>
       <c r="I4" t="n">
         <v>180.18</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>110.18</v>
+        <v>99</v>
       </c>
       <c r="I5" t="n">
-        <v>145.18</v>
+        <v>134</v>
       </c>
       <c r="J5" t="n">
-        <v>180.056</v>
+        <v>162.028</v>
       </c>
       <c r="K5" t="n">
         <v>202.442</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>82.801</v>
+        <v>41.4</v>
       </c>
       <c r="H7" t="n">
-        <v>178.601</v>
+        <v>165</v>
       </c>
       <c r="I7" t="n">
         <v>202.803</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" t="n">
         <v>52</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.541</v>
+        <v>67</v>
       </c>
       <c r="I9" t="n">
-        <v>135.18</v>
+        <v>124</v>
       </c>
       <c r="J9" t="n">
-        <v>154.591</v>
+        <v>144.296</v>
       </c>
       <c r="K9" t="n">
         <v>188.296</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>96.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="G19" t="n">
         <v>106.18</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>102.811</v>
+        <v>87</v>
       </c>
       <c r="G20" t="n">
         <v>112.811</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>67.464</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
         <v>77.464</v>
@@ -1726,7 +1726,7 @@
         <v>2633.545</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>110.044</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>234.953</v>
+        <v>192</v>
       </c>
       <c r="I2" t="n">
         <v>209.616</v>
@@ -1969,22 +1969,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.765</v>
+        <v>42</v>
       </c>
       <c r="L7" t="n">
-        <v>85.062</v>
+        <v>77</v>
       </c>
       <c r="M7" t="n">
-        <v>108.541</v>
+        <v>97.77</v>
       </c>
       <c r="N7" t="n">
-        <v>125.881</v>
+        <v>116.826</v>
       </c>
       <c r="O7" t="n">
-        <v>171.095</v>
+        <v>150</v>
       </c>
       <c r="P7" t="n">
-        <v>181.26</v>
+        <v>170.63</v>
       </c>
       <c r="Q7" t="n">
         <v>227.8</v>
@@ -2022,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.53</v>
+        <v>14.765</v>
       </c>
       <c r="K8" t="n">
-        <v>101.403</v>
+        <v>95</v>
       </c>
       <c r="L8" t="n">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="M8" t="n">
-        <v>190.604</v>
+        <v>162.302</v>
       </c>
       <c r="N8" t="n">
-        <v>186.302</v>
+        <v>179.302</v>
       </c>
       <c r="O8" t="n">
         <v>234.579</v>
@@ -2175,22 +2175,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>54.235</v>
+        <v>35</v>
       </c>
       <c r="L11" t="n">
-        <v>61.125</v>
+        <v>53.062</v>
       </c>
       <c r="M11" t="n">
-        <v>97.142</v>
+        <v>83</v>
       </c>
       <c r="N11" t="n">
-        <v>110.088</v>
+        <v>101.544</v>
       </c>
       <c r="O11" t="n">
-        <v>161.664</v>
+        <v>136.604</v>
       </c>
       <c r="P11" t="n">
-        <v>157.374</v>
+        <v>151.989</v>
       </c>
       <c r="Q11" t="n">
         <v>213.067</v>
@@ -2228,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.616</v>
+        <v>34</v>
       </c>
       <c r="K12" t="n">
-        <v>62.439</v>
+        <v>53.22</v>
       </c>
       <c r="L12" t="n">
-        <v>77.36199999999999</v>
+        <v>70.291</v>
       </c>
       <c r="M12" t="n">
-        <v>106.367</v>
+        <v>93.32899999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>145.708</v>
+        <v>124.519</v>
       </c>
       <c r="O12" t="n">
         <v>169.86</v>
@@ -2278,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
-        <v>126.031</v>
+        <v>94.01600000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>133.038</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>164.059</v>
+        <v>147.029</v>
       </c>
       <c r="N13" t="n">
-        <v>179.39</v>
+        <v>168.21</v>
       </c>
       <c r="O13" t="n">
         <v>218.521</v>
@@ -2325,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.056</v>
+        <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K14" t="n">
-        <v>95.77</v>
+        <v>90.38500000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>176.079</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.806</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>99.602</v>
+        <v>91</v>
       </c>
       <c r="K15" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L15" t="n">
-        <v>140.413</v>
+        <v>128.207</v>
       </c>
       <c r="M15" t="n">
         <v>177.564</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>150.623</v>
+        <v>119</v>
       </c>
       <c r="H16" t="n">
-        <v>173.721</v>
+        <v>151.361</v>
       </c>
       <c r="I16" t="n">
         <v>197.416</v>
@@ -2448,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.38800000000001</v>
+        <v>64</v>
       </c>
       <c r="K17" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L17" t="n">
-        <v>99.77</v>
+        <v>94.38500000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>179.857</v>
+        <v>142.121</v>
       </c>
       <c r="N17" t="n">
-        <v>160.121</v>
+        <v>156.121</v>
       </c>
       <c r="O17" t="n">
         <v>201.178</v>
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>67.08199999999999</v>
+        <v>33.541</v>
       </c>
       <c r="I18" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J18" t="n">
-        <v>149.313</v>
+        <v>111.656</v>
       </c>
       <c r="K18" t="n">
         <v>154.958</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="I19" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J19" t="n">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K19" t="n">
         <v>206.479</v>
@@ -2618,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>57.459</v>
+        <v>30</v>
       </c>
       <c r="I21" t="n">
-        <v>80.2</v>
+        <v>60.1</v>
       </c>
       <c r="J21" t="n">
-        <v>195.399</v>
+        <v>132.75</v>
       </c>
       <c r="K21" t="n">
         <v>201.273</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>78.102</v>
+        <v>39.051</v>
       </c>
       <c r="I23" t="n">
-        <v>84.434</v>
+        <v>75</v>
       </c>
       <c r="J23" t="n">
-        <v>125.447</v>
+        <v>105.224</v>
       </c>
       <c r="K23" t="n">
         <v>150.224</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>112.05</v>
+        <v>72</v>
       </c>
       <c r="H24" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I24" t="n">
         <v>152.053</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>84.85299999999999</v>
+        <v>42.426</v>
       </c>
       <c r="H25" t="n">
-        <v>94.47199999999999</v>
+        <v>90</v>
       </c>
       <c r="I25" t="n">
         <v>138.21</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>90.24299999999999</v>
+        <v>86</v>
       </c>
       <c r="G26" t="n">
         <v>100.243</v>
@@ -2896,7 +2896,7 @@
         <v>1751.805</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -2979,70 +2979,70 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.492</v>
+        <v>8.246</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.246</v>
+        <v>105.246</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.246</v>
+        <v>198.246</v>
       </c>
       <c r="AD2" t="n">
-        <v>298.246</v>
+        <v>293.246</v>
       </c>
       <c r="AE2" t="n">
-        <v>400.451</v>
+        <v>391.849</v>
       </c>
       <c r="AF2" t="n">
-        <v>493.51</v>
+        <v>487.679</v>
       </c>
       <c r="AG2" t="n">
-        <v>587.679</v>
+        <v>582.679</v>
       </c>
       <c r="AH2" t="n">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="AI2" t="n">
-        <v>791.606</v>
+        <v>788</v>
       </c>
       <c r="AJ2" t="n">
-        <v>987.899</v>
+        <v>978</v>
       </c>
       <c r="AK2" t="n">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AL2" t="n">
-        <v>1171.246</v>
+        <v>1167.123</v>
       </c>
       <c r="AM2" t="n">
-        <v>1264.606</v>
+        <v>1261</v>
       </c>
       <c r="AN2" t="n">
-        <v>1359.944</v>
+        <v>1355.472</v>
       </c>
       <c r="AO2" t="n">
-        <v>1456.786</v>
+        <v>1451.129</v>
       </c>
       <c r="AP2" t="n">
-        <v>1551.129</v>
+        <v>1546.129</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1646.899</v>
+        <v>1641.514</v>
       </c>
       <c r="AR2" t="n">
-        <v>1835.606</v>
+        <v>1832</v>
       </c>
       <c r="AS2" t="n">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="AT2" t="n">
-        <v>2444.232</v>
+        <v>2414</v>
       </c>
       <c r="AU2" t="n">
-        <v>3129.249</v>
+        <v>3097</v>
       </c>
       <c r="AV2" t="n">
-        <v>3206.698</v>
+        <v>3196.849</v>
       </c>
       <c r="AW2" t="n">
         <v>3307.464</v>
@@ -3122,61 +3122,61 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.657</v>
+        <v>102.828</v>
       </c>
       <c r="Z3" t="n">
-        <v>200.04</v>
+        <v>196.434</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.091</v>
+        <v>289.262</v>
       </c>
       <c r="AB3" t="n">
-        <v>401.606</v>
+        <v>398</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.944</v>
+        <v>497</v>
       </c>
       <c r="AD3" t="n">
-        <v>599.649</v>
+        <v>593.325</v>
       </c>
       <c r="AE3" t="n">
-        <v>687.325</v>
+        <v>685.325</v>
       </c>
       <c r="AF3" t="n">
-        <v>1258.831</v>
+        <v>1253</v>
       </c>
       <c r="AG3" t="n">
-        <v>1457.05</v>
+        <v>1447</v>
       </c>
       <c r="AH3" t="n">
-        <v>1553.125</v>
+        <v>1545.062</v>
       </c>
       <c r="AI3" t="n">
-        <v>1959.942</v>
+        <v>1934</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="AK3" t="n">
-        <v>2617.155</v>
+        <v>2601</v>
       </c>
       <c r="AL3" t="n">
-        <v>2705.142</v>
+        <v>2698.071</v>
       </c>
       <c r="AM3" t="n">
-        <v>2794.071</v>
+        <v>2791.071</v>
       </c>
       <c r="AN3" t="n">
-        <v>2893.237</v>
+        <v>2887.154</v>
       </c>
       <c r="AO3" t="n">
-        <v>2988.657</v>
+        <v>2983</v>
       </c>
       <c r="AP3" t="n">
-        <v>3144.554</v>
+        <v>3108.777</v>
       </c>
       <c r="AQ3" t="n">
         <v>3222.943</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2841.294</v>
+        <v>2802</v>
       </c>
       <c r="G4" t="n">
         <v>2931.294</v>
@@ -3276,55 +3276,55 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>24.413</v>
+        <v>12.207</v>
       </c>
       <c r="W5" t="n">
-        <v>108.207</v>
+        <v>105.207</v>
       </c>
       <c r="X5" t="n">
-        <v>205.207</v>
+        <v>200.207</v>
       </c>
       <c r="Y5" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Z5" t="n">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA5" t="n">
-        <v>781.831</v>
+        <v>776</v>
       </c>
       <c r="AB5" t="n">
-        <v>876.77</v>
+        <v>871.385</v>
       </c>
       <c r="AC5" t="n">
-        <v>974.191</v>
+        <v>967.788</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073.409</v>
+        <v>1065.599</v>
       </c>
       <c r="AE5" t="n">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="AF5" t="n">
-        <v>1822.606</v>
+        <v>1819</v>
       </c>
       <c r="AG5" t="n">
-        <v>1917.944</v>
+        <v>1913.472</v>
       </c>
       <c r="AH5" t="n">
-        <v>2014.385</v>
+        <v>2009</v>
       </c>
       <c r="AI5" t="n">
-        <v>2111.806</v>
+        <v>2105.403</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2669.606</v>
+        <v>2666</v>
       </c>
       <c r="AK5" t="n">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="AL5" t="n">
-        <v>2864.125</v>
+        <v>2856.062</v>
       </c>
       <c r="AM5" t="n">
         <v>2956.833</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2564.478</v>
+        <v>2513</v>
       </c>
       <c r="H6" t="n">
-        <v>2713</v>
+        <v>2703</v>
       </c>
       <c r="I6" t="n">
         <v>2840.434</v>
@@ -3388,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2498.028</v>
+        <v>2480</v>
       </c>
       <c r="I7" t="n">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="J7" t="n">
-        <v>2771.462</v>
+        <v>2717.231</v>
       </c>
       <c r="K7" t="n">
         <v>2858.309</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>232.849</v>
+        <v>213</v>
       </c>
       <c r="P8" t="n">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q8" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R8" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="S8" t="n">
-        <v>1180.881</v>
+        <v>1160</v>
       </c>
       <c r="T8" t="n">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="U8" t="n">
-        <v>2223.854</v>
+        <v>2200</v>
       </c>
       <c r="V8" t="n">
-        <v>2294.472</v>
+        <v>2292.236</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.561</v>
+        <v>2385.398</v>
       </c>
       <c r="X8" t="n">
-        <v>2555.623</v>
+        <v>2515.511</v>
       </c>
       <c r="Y8" t="n">
         <v>2636.317</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>323.616</v>
+        <v>303</v>
       </c>
       <c r="K9" t="n">
-        <v>1655.53</v>
+        <v>1643</v>
       </c>
       <c r="L9" t="n">
-        <v>1751.111</v>
+        <v>1742.055</v>
       </c>
       <c r="M9" t="n">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="N9" t="n">
-        <v>2513.849</v>
+        <v>2504</v>
       </c>
       <c r="O9" t="n">
         <v>2618.083</v>
@@ -3562,19 +3562,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1762.476</v>
+        <v>1736</v>
       </c>
       <c r="K10" t="n">
-        <v>2050.932</v>
+        <v>2029</v>
       </c>
       <c r="L10" t="n">
-        <v>2142.705</v>
+        <v>2131</v>
       </c>
       <c r="M10" t="n">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="N10" t="n">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="O10" t="n">
         <v>2469.523</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2932.388</v>
+        <v>2900</v>
       </c>
       <c r="G13" t="n">
         <v>3022.388</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1378.388</v>
+        <v>1346</v>
       </c>
       <c r="G14" t="n">
         <v>1468.388</v>
@@ -3752,19 +3752,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>918.202</v>
+        <v>881</v>
       </c>
       <c r="K15" t="n">
-        <v>1333.13</v>
+        <v>1256</v>
       </c>
       <c r="L15" t="n">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="M15" t="n">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="N15" t="n">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="O15" t="n">
         <v>1670.277</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>637.311</v>
+        <v>597</v>
       </c>
       <c r="G16" t="n">
         <v>727.311</v>
@@ -3873,34 +3873,34 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>182.806</v>
+        <v>152</v>
       </c>
       <c r="P2" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R2" t="n">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S2" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="T2" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="U2" t="n">
-        <v>680.071</v>
+        <v>673</v>
       </c>
       <c r="V2" t="n">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="W2" t="n">
-        <v>902.631</v>
+        <v>818.8150000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>842.8150000000001</v>
+        <v>835.8150000000001</v>
       </c>
       <c r="Y2" t="n">
         <v>891.092</v>
@@ -3944,25 +3944,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>406.806</v>
+        <v>376</v>
       </c>
       <c r="M3" t="n">
-        <v>398.806</v>
+        <v>392.403</v>
       </c>
       <c r="N3" t="n">
-        <v>560.606</v>
+        <v>557</v>
       </c>
       <c r="O3" t="n">
-        <v>587.881</v>
+        <v>577.4400000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>714.704</v>
+        <v>651.072</v>
       </c>
       <c r="Q3" t="n">
-        <v>763.561</v>
+        <v>712.317</v>
       </c>
       <c r="R3" t="n">
-        <v>799.492</v>
+        <v>760.904</v>
       </c>
       <c r="S3" t="n">
         <v>808.9829999999999</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>550.623</v>
+        <v>519</v>
       </c>
       <c r="H4" t="n">
-        <v>714.1799999999999</v>
+        <v>703</v>
       </c>
       <c r="I4" t="n">
         <v>753.311</v>
@@ -4362,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>719.078</v>
+        <v>668</v>
       </c>
       <c r="I2" t="n">
-        <v>876.361</v>
+        <v>836</v>
       </c>
       <c r="J2" t="n">
-        <v>1012.811</v>
+        <v>997</v>
       </c>
       <c r="K2" t="n">
         <v>1102.811</v>
@@ -4397,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I3" t="n">
         <v>1014.198</v>
@@ -4444,25 +4444,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.413</v>
+        <v>12.207</v>
       </c>
       <c r="M4" t="n">
-        <v>104.207</v>
+        <v>103.207</v>
       </c>
       <c r="N4" t="n">
-        <v>197.207</v>
+        <v>195.207</v>
       </c>
       <c r="O4" t="n">
-        <v>295.207</v>
+        <v>290.207</v>
       </c>
       <c r="P4" t="n">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="Q4" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="R4" t="n">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="S4" t="n">
         <v>1162.028</v>
@@ -4491,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>837.804</v>
+        <v>815</v>
       </c>
       <c r="H5" t="n">
-        <v>1004.606</v>
+        <v>1001</v>
       </c>
       <c r="I5" t="n">
         <v>1110.209</v>
@@ -4538,25 +4538,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M6" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N6" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O6" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q6" t="n">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="R6" t="n">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="S6" t="n">
         <v>927.1660000000001</v>
@@ -4591,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.265</v>
+        <v>15.133</v>
       </c>
       <c r="J7" t="n">
-        <v>107.133</v>
+        <v>106.133</v>
       </c>
       <c r="K7" t="n">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="L7" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="M7" t="n">
         <v>1025.682</v>
@@ -4638,19 +4638,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K8" t="n">
-        <v>265.657</v>
+        <v>262.828</v>
       </c>
       <c r="L8" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M8" t="n">
-        <v>628.472</v>
+        <v>626.236</v>
       </c>
       <c r="N8" t="n">
-        <v>729.236</v>
+        <v>727</v>
       </c>
       <c r="O8" t="n">
         <v>835.111</v>
@@ -4700,31 +4700,31 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>33.106</v>
+        <v>16.553</v>
       </c>
       <c r="O9" t="n">
-        <v>112.553</v>
+        <v>109.553</v>
       </c>
       <c r="P9" t="n">
-        <v>203.553</v>
+        <v>201.553</v>
       </c>
       <c r="Q9" t="n">
-        <v>295.553</v>
+        <v>293.553</v>
       </c>
       <c r="R9" t="n">
-        <v>389.553</v>
+        <v>386.553</v>
       </c>
       <c r="S9" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T9" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="U9" t="n">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="V9" t="n">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="W9" t="n">
         <v>1023.213</v>
@@ -4759,16 +4759,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>373.763</v>
+        <v>357</v>
       </c>
       <c r="J10" t="n">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>703.419</v>
+        <v>665</v>
       </c>
       <c r="L10" t="n">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M10" t="n">
         <v>880.388</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="I12" t="n">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J12" t="n">
-        <v>786.0119999999999</v>
+        <v>743</v>
       </c>
       <c r="K12" t="n">
         <v>866.5410000000001</v>
@@ -5023,28 +5023,28 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>61.612</v>
+        <v>30.806</v>
       </c>
       <c r="N16" t="n">
-        <v>128.806</v>
+        <v>124.806</v>
       </c>
       <c r="O16" t="n">
-        <v>220.806</v>
+        <v>217.806</v>
       </c>
       <c r="P16" t="n">
-        <v>317.806</v>
+        <v>312.806</v>
       </c>
       <c r="Q16" t="n">
-        <v>412.806</v>
+        <v>407.806</v>
       </c>
       <c r="R16" t="n">
-        <v>507.806</v>
+        <v>502.806</v>
       </c>
       <c r="S16" t="n">
-        <v>596.806</v>
+        <v>594.806</v>
       </c>
       <c r="T16" t="n">
-        <v>690.806</v>
+        <v>687.806</v>
       </c>
       <c r="U16" t="n">
         <v>815.885</v>
@@ -5088,25 +5088,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>61.612</v>
+        <v>30.806</v>
       </c>
       <c r="M17" t="n">
-        <v>131.576</v>
+        <v>126.191</v>
       </c>
       <c r="N17" t="n">
-        <v>220.191</v>
+        <v>218.191</v>
       </c>
       <c r="O17" t="n">
-        <v>375.071</v>
+        <v>368</v>
       </c>
       <c r="P17" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="R17" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="S17" t="n">
         <v>793.079</v>
@@ -5200,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>325.608</v>
+        <v>285</v>
       </c>
       <c r="I19" t="n">
-        <v>432.585</v>
+        <v>403.792</v>
       </c>
       <c r="J19" t="n">
-        <v>602.178</v>
+        <v>574</v>
       </c>
       <c r="K19" t="n">
         <v>716</v>
@@ -5297,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>297.388</v>
+        <v>265</v>
       </c>
       <c r="H21" t="n">
-        <v>510.016</v>
+        <v>478</v>
       </c>
       <c r="I21" t="n">
         <v>623.7140000000001</v>
@@ -5415,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2157.079</v>
+        <v>2119</v>
       </c>
       <c r="J2" t="n">
-        <v>2223.142</v>
+        <v>2216.071</v>
       </c>
       <c r="K2" t="n">
-        <v>2518.142</v>
+        <v>2504</v>
       </c>
       <c r="L2" t="n">
-        <v>2995.806</v>
+        <v>2983</v>
       </c>
       <c r="M2" t="n">
         <v>3084.662</v>
@@ -5494,25 +5494,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.133</v>
+        <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>218.831</v>
+        <v>213</v>
       </c>
       <c r="N4" t="n">
-        <v>320.205</v>
+        <v>311.602</v>
       </c>
       <c r="O4" t="n">
-        <v>1080.81</v>
+        <v>1073</v>
       </c>
       <c r="P4" t="n">
-        <v>1171.246</v>
+        <v>1167.123</v>
       </c>
       <c r="Q4" t="n">
-        <v>1264.606</v>
+        <v>1261</v>
       </c>
       <c r="R4" t="n">
-        <v>2723.179</v>
+        <v>2698</v>
       </c>
       <c r="S4" t="n">
         <v>2807.647</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2807.763</v>
+        <v>2791</v>
       </c>
       <c r="G5" t="n">
         <v>2897.763</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G7" t="n">
         <v>221</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.166</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
         <v>124.166</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>110</v>
@@ -5798,19 +5798,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>239.541</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
-        <v>435.355</v>
+        <v>400</v>
       </c>
       <c r="L2" t="n">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="M2" t="n">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="N2" t="n">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="O2" t="n">
         <v>882</v>
@@ -5892,19 +5892,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>301.016</v>
+        <v>269</v>
       </c>
       <c r="K4" t="n">
-        <v>342.18</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>416.207</v>
+        <v>404</v>
       </c>
       <c r="M4" t="n">
-        <v>603.249</v>
+        <v>577</v>
       </c>
       <c r="N4" t="n">
-        <v>618.623</v>
+        <v>602.811</v>
       </c>
       <c r="O4" t="n">
         <v>644.434</v>
@@ -5939,16 +5939,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>242.056</v>
+        <v>206</v>
       </c>
       <c r="J5" t="n">
-        <v>252.056</v>
+        <v>234.028</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L5" t="n">
-        <v>711.213</v>
+        <v>690</v>
       </c>
       <c r="M5" t="n">
         <v>711.1799999999999</v>
@@ -5980,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>54.616</v>
+        <v>34</v>
       </c>
       <c r="I6" t="n">
-        <v>283.18</v>
+        <v>272</v>
       </c>
       <c r="J6" t="n">
-        <v>399.361</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
         <v>402.811</v>
@@ -6018,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>205.414</v>
+        <v>175</v>
       </c>
       <c r="I7" t="n">
-        <v>216.623</v>
+        <v>200.811</v>
       </c>
       <c r="J7" t="n">
-        <v>253.191</v>
+        <v>232.001</v>
       </c>
       <c r="K7" t="n">
         <v>260.001</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>426.18</v>
+        <v>415</v>
       </c>
       <c r="G8" t="n">
         <v>436.18</v>
@@ -6112,13 +6112,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>824.1660000000001</v>
+        <v>812</v>
       </c>
       <c r="I2" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J2" t="n">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="K2" t="n">
         <v>1162.028</v>
@@ -6147,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>468.591</v>
+        <v>448</v>
       </c>
       <c r="H3" t="n">
-        <v>1004.606</v>
+        <v>1001</v>
       </c>
       <c r="I3" t="n">
         <v>1110.209</v>
@@ -6179,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="H4" t="n">
-        <v>917.099</v>
+        <v>912</v>
       </c>
       <c r="I4" t="n">
         <v>1020.682</v>
@@ -6226,25 +6226,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>174.385</v>
+        <v>169</v>
       </c>
       <c r="N5" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O5" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P5" t="n">
-        <v>685.591</v>
+        <v>665</v>
       </c>
       <c r="Q5" t="n">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="R5" t="n">
-        <v>892.407</v>
+        <v>870.204</v>
       </c>
       <c r="S5" t="n">
         <v>983.0069999999999</v>
@@ -6323,16 +6323,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="J7" t="n">
-        <v>265.657</v>
+        <v>262.828</v>
       </c>
       <c r="K7" t="n">
-        <v>673.401</v>
+        <v>652</v>
       </c>
       <c r="L7" t="n">
-        <v>802.299</v>
+        <v>772.15</v>
       </c>
       <c r="M7" t="n">
         <v>875.15</v>
@@ -6426,13 +6426,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>373.763</v>
+        <v>357</v>
       </c>
       <c r="I9" t="n">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J9" t="n">
-        <v>546.325</v>
+        <v>543.162</v>
       </c>
       <c r="K9" t="n">
         <v>653.2619999999999</v>
@@ -6464,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I10" t="n">
-        <v>456.071</v>
+        <v>449</v>
       </c>
       <c r="J10" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K10" t="n">
         <v>727.811</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="H11" t="n">
-        <v>587.616</v>
+        <v>567</v>
       </c>
       <c r="I11" t="n">
         <v>697.311</v>
@@ -6691,22 +6691,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>69.857</v>
+        <v>34.928</v>
       </c>
       <c r="L2" t="n">
-        <v>795.023</v>
+        <v>773</v>
       </c>
       <c r="M2" t="n">
-        <v>825.802</v>
+        <v>804.401</v>
       </c>
       <c r="N2" t="n">
-        <v>841.604</v>
+        <v>828.002</v>
       </c>
       <c r="O2" t="n">
-        <v>850.002</v>
+        <v>844.002</v>
       </c>
       <c r="P2" t="n">
-        <v>938.973</v>
+        <v>896.4880000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>927.583</v>
@@ -6750,25 +6750,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50.99</v>
+        <v>25.495</v>
       </c>
       <c r="M3" t="n">
-        <v>437.022</v>
+        <v>414</v>
       </c>
       <c r="N3" t="n">
-        <v>596.062</v>
+        <v>588</v>
       </c>
       <c r="O3" t="n">
-        <v>653.042</v>
+        <v>641</v>
       </c>
       <c r="P3" t="n">
-        <v>847.062</v>
+        <v>839</v>
       </c>
       <c r="Q3" t="n">
-        <v>862.4160000000001</v>
+        <v>855.708</v>
       </c>
       <c r="R3" t="n">
-        <v>917.593</v>
+        <v>891.65</v>
       </c>
       <c r="S3" t="n">
         <v>935.191</v>
@@ -6821,34 +6821,34 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>426.18</v>
+        <v>415</v>
       </c>
       <c r="P4" t="n">
-        <v>439.162</v>
+        <v>436</v>
       </c>
       <c r="Q4" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R4" t="n">
-        <v>630.4160000000001</v>
+        <v>623.708</v>
       </c>
       <c r="S4" t="n">
-        <v>643.9059999999999</v>
+        <v>638.807</v>
       </c>
       <c r="T4" t="n">
-        <v>744.099</v>
+        <v>739</v>
       </c>
       <c r="U4" t="n">
-        <v>778.732</v>
+        <v>763.866</v>
       </c>
       <c r="V4" t="n">
-        <v>799.164</v>
+        <v>786.515</v>
       </c>
       <c r="W4" t="n">
-        <v>828.138</v>
+        <v>812.327</v>
       </c>
       <c r="X4" t="n">
-        <v>855.083</v>
+        <v>849</v>
       </c>
       <c r="Y4" t="n">
         <v>868.0549999999999</v>
@@ -7203,28 +7203,28 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>120.325</v>
+        <v>114</v>
       </c>
       <c r="N9" t="n">
-        <v>299.434</v>
+        <v>290</v>
       </c>
       <c r="O9" t="n">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P9" t="n">
-        <v>409.314</v>
+        <v>403.657</v>
       </c>
       <c r="Q9" t="n">
-        <v>426.306</v>
+        <v>419.981</v>
       </c>
       <c r="R9" t="n">
-        <v>441.981</v>
+        <v>435.981</v>
       </c>
       <c r="S9" t="n">
-        <v>458.631</v>
+        <v>452.306</v>
       </c>
       <c r="T9" t="n">
-        <v>502.555</v>
+        <v>482.431</v>
       </c>
       <c r="U9" t="n">
         <v>524.6799999999999</v>
@@ -7309,22 +7309,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.028</v>
+        <v>214</v>
       </c>
       <c r="L11" t="n">
-        <v>245.849</v>
+        <v>236</v>
       </c>
       <c r="M11" t="n">
-        <v>262.971</v>
+        <v>254.485</v>
       </c>
       <c r="N11" t="n">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="O11" t="n">
-        <v>421.881</v>
+        <v>362.941</v>
       </c>
       <c r="P11" t="n">
-        <v>404.563</v>
+        <v>388.752</v>
       </c>
       <c r="Q11" t="n">
         <v>441.178</v>
@@ -7430,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>204.26</v>
+        <v>183</v>
       </c>
       <c r="I13" t="n">
-        <v>297.616</v>
+        <v>290</v>
       </c>
       <c r="J13" t="n">
-        <v>320.1</v>
+        <v>310.05</v>
       </c>
       <c r="K13" t="n">
         <v>351.94</v>
@@ -7471,16 +7471,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>53.472</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>68.203</v>
+        <v>54.601</v>
       </c>
       <c r="K14" t="n">
-        <v>220.265</v>
+        <v>190</v>
       </c>
       <c r="L14" t="n">
-        <v>243.652</v>
+        <v>228</v>
       </c>
       <c r="M14" t="n">
         <v>253</v>
@@ -7515,16 +7515,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>69.759</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>108.141</v>
+        <v>81.571</v>
       </c>
       <c r="K15" t="n">
-        <v>253.791</v>
+        <v>175</v>
       </c>
       <c r="L15" t="n">
-        <v>216.623</v>
+        <v>200.811</v>
       </c>
       <c r="M15" t="n">
         <v>242.827</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G16" t="n">
         <v>119</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>845.616</v>
+        <v>825</v>
       </c>
       <c r="H3" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I3" t="n">
         <v>1025.682</v>
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="H4" t="n">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="I4" t="n">
         <v>927.1660000000001</v>
@@ -7989,34 +7989,34 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>166.22</v>
+        <v>157</v>
       </c>
       <c r="P3" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q3" t="n">
-        <v>394.345</v>
+        <v>371</v>
       </c>
       <c r="R3" t="n">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S3" t="n">
-        <v>627.284</v>
+        <v>599</v>
       </c>
       <c r="T3" t="n">
-        <v>666.361</v>
+        <v>644</v>
       </c>
       <c r="U3" t="n">
-        <v>680.071</v>
+        <v>673</v>
       </c>
       <c r="V3" t="n">
-        <v>857.664</v>
+        <v>782</v>
       </c>
       <c r="W3" t="n">
-        <v>813.26</v>
+        <v>802.63</v>
       </c>
       <c r="X3" t="n">
-        <v>836.961</v>
+        <v>824.796</v>
       </c>
       <c r="Y3" t="n">
         <v>880.073</v>
@@ -8125,28 +8125,28 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.361</v>
+        <v>11.18</v>
       </c>
       <c r="N5" t="n">
-        <v>160.544</v>
+        <v>152</v>
       </c>
       <c r="O5" t="n">
-        <v>316.062</v>
+        <v>308</v>
       </c>
       <c r="P5" t="n">
-        <v>376.804</v>
+        <v>359</v>
       </c>
       <c r="Q5" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="R5" t="n">
-        <v>565.028</v>
+        <v>547</v>
       </c>
       <c r="S5" t="n">
-        <v>670.029</v>
+        <v>653</v>
       </c>
       <c r="T5" t="n">
-        <v>714.1799999999999</v>
+        <v>703</v>
       </c>
       <c r="U5" t="n">
         <v>753.311</v>
@@ -8243,22 +8243,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>78.102</v>
+        <v>39.051</v>
       </c>
       <c r="L7" t="n">
-        <v>277.434</v>
+        <v>268</v>
       </c>
       <c r="M7" t="n">
-        <v>352.464</v>
+        <v>335</v>
       </c>
       <c r="N7" t="n">
-        <v>547.198</v>
+        <v>537</v>
       </c>
       <c r="O7" t="n">
-        <v>667.561</v>
+        <v>645</v>
       </c>
       <c r="P7" t="n">
-        <v>790.484</v>
+        <v>722.742</v>
       </c>
       <c r="Q7" t="n">
         <v>783.821</v>
@@ -8305,28 +8305,28 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>277.889</v>
+        <v>260</v>
       </c>
       <c r="N8" t="n">
-        <v>381.125</v>
+        <v>365</v>
       </c>
       <c r="O8" t="n">
-        <v>389.422</v>
+        <v>382.211</v>
       </c>
       <c r="P8" t="n">
-        <v>410.1</v>
+        <v>401.155</v>
       </c>
       <c r="Q8" t="n">
-        <v>441.155</v>
+        <v>426.155</v>
       </c>
       <c r="R8" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S8" t="n">
-        <v>511.806</v>
+        <v>505.403</v>
       </c>
       <c r="T8" t="n">
-        <v>719.962</v>
+        <v>694</v>
       </c>
       <c r="U8" t="n">
         <v>730.926</v>
@@ -8379,34 +8379,34 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>124.235</v>
+        <v>105</v>
       </c>
       <c r="P9" t="n">
-        <v>199.062</v>
+        <v>191</v>
       </c>
       <c r="Q9" t="n">
-        <v>407.042</v>
+        <v>395</v>
       </c>
       <c r="R9" t="n">
-        <v>421.971</v>
+        <v>413.485</v>
       </c>
       <c r="S9" t="n">
-        <v>440.573</v>
+        <v>432.029</v>
       </c>
       <c r="T9" t="n">
-        <v>472.558</v>
+        <v>457.294</v>
       </c>
       <c r="U9" t="n">
-        <v>545.294</v>
+        <v>506.294</v>
       </c>
       <c r="V9" t="n">
-        <v>555.992</v>
+        <v>536.143</v>
       </c>
       <c r="W9" t="n">
-        <v>572.143</v>
+        <v>559.143</v>
       </c>
       <c r="X9" t="n">
-        <v>591.504</v>
+        <v>580.323</v>
       </c>
       <c r="Y9" t="n">
         <v>648.847</v>
@@ -8456,31 +8456,31 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>29.53</v>
+        <v>14.765</v>
       </c>
       <c r="O10" t="n">
-        <v>181.422</v>
+        <v>167</v>
       </c>
       <c r="P10" t="n">
-        <v>275.071</v>
+        <v>268</v>
       </c>
       <c r="Q10" t="n">
-        <v>304.077</v>
+        <v>291.038</v>
       </c>
       <c r="R10" t="n">
-        <v>351.397</v>
+        <v>326.218</v>
       </c>
       <c r="S10" t="n">
-        <v>346.988</v>
+        <v>341.603</v>
       </c>
       <c r="T10" t="n">
-        <v>437.951</v>
+        <v>394.777</v>
       </c>
       <c r="U10" t="n">
-        <v>410.777</v>
+        <v>407.777</v>
       </c>
       <c r="V10" t="n">
-        <v>468.767</v>
+        <v>443.272</v>
       </c>
       <c r="W10" t="n">
         <v>473.272</v>
@@ -8512,13 +8512,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I11" t="n">
-        <v>404.071</v>
+        <v>397</v>
       </c>
       <c r="J11" t="n">
-        <v>579.361</v>
+        <v>557</v>
       </c>
       <c r="K11" t="n">
         <v>585.028</v>
@@ -8562,25 +8562,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>86.023</v>
+        <v>43.012</v>
       </c>
       <c r="M12" t="n">
-        <v>71.071</v>
+        <v>64</v>
       </c>
       <c r="N12" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O12" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P12" t="n">
-        <v>294.469</v>
+        <v>260.734</v>
       </c>
       <c r="Q12" t="n">
-        <v>336.946</v>
+        <v>303.84</v>
       </c>
       <c r="R12" t="n">
-        <v>332.708</v>
+        <v>323.274</v>
       </c>
       <c r="S12" t="n">
         <v>374.505</v>
@@ -8624,25 +8624,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>228.526</v>
+        <v>195</v>
       </c>
       <c r="M13" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N13" t="n">
-        <v>291.257</v>
+        <v>256.128</v>
       </c>
       <c r="O13" t="n">
-        <v>332.128</v>
+        <v>299.128</v>
       </c>
       <c r="P13" t="n">
-        <v>313.128</v>
+        <v>311.128</v>
       </c>
       <c r="Q13" t="n">
-        <v>331.899</v>
+        <v>326.514</v>
       </c>
       <c r="R13" t="n">
-        <v>380.385</v>
+        <v>375</v>
       </c>
       <c r="S13" t="n">
         <v>420</v>
@@ -8683,22 +8683,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.711</v>
+        <v>35.355</v>
       </c>
       <c r="L14" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M14" t="n">
-        <v>167.498</v>
+        <v>141.249</v>
       </c>
       <c r="N14" t="n">
-        <v>324.638</v>
+        <v>246</v>
       </c>
       <c r="O14" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P14" t="n">
-        <v>282.806</v>
+        <v>276.403</v>
       </c>
       <c r="Q14" t="n">
         <v>336.692</v>
@@ -8736,19 +8736,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>75.47199999999999</v>
+        <v>37.736</v>
       </c>
       <c r="K15" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L15" t="n">
-        <v>259.918</v>
+        <v>171.459</v>
       </c>
       <c r="M15" t="n">
-        <v>205.18</v>
+        <v>194</v>
       </c>
       <c r="N15" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O15" t="n">
         <v>276.009</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.616</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>167.723</v>
+        <v>138.862</v>
       </c>
       <c r="I16" t="n">
         <v>176.321</v>
@@ -8887,58 +8887,58 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>105.657</v>
+        <v>102.828</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.04</v>
+        <v>196.434</v>
       </c>
       <c r="Z2" t="n">
-        <v>292.091</v>
+        <v>289.262</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.606</v>
+        <v>398</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.944</v>
+        <v>497</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.649</v>
+        <v>593.325</v>
       </c>
       <c r="AD2" t="n">
-        <v>1260.071</v>
+        <v>1253</v>
       </c>
       <c r="AE2" t="n">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1457.77</v>
+        <v>1447</v>
       </c>
       <c r="AG2" t="n">
-        <v>1553.125</v>
+        <v>1545.062</v>
       </c>
       <c r="AH2" t="n">
-        <v>1756.765</v>
+        <v>1742</v>
       </c>
       <c r="AI2" t="n">
-        <v>2223.071</v>
+        <v>2216</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2613.806</v>
+        <v>2601</v>
       </c>
       <c r="AK2" t="n">
-        <v>2705.142</v>
+        <v>2698.071</v>
       </c>
       <c r="AL2" t="n">
-        <v>2794.071</v>
+        <v>2791.071</v>
       </c>
       <c r="AM2" t="n">
-        <v>2893.237</v>
+        <v>2887.154</v>
       </c>
       <c r="AN2" t="n">
-        <v>2988.657</v>
+        <v>2983</v>
       </c>
       <c r="AO2" t="n">
         <v>3084.662</v>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2065.357</v>
+        <v>2026</v>
       </c>
       <c r="G3" t="n">
         <v>2155.357</v>
@@ -9020,37 +9020,37 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>40.133</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>218.831</v>
+        <v>213</v>
       </c>
       <c r="R4" t="n">
-        <v>320.205</v>
+        <v>311.602</v>
       </c>
       <c r="S4" t="n">
-        <v>1080.81</v>
+        <v>1073</v>
       </c>
       <c r="T4" t="n">
-        <v>1171.246</v>
+        <v>1167.123</v>
       </c>
       <c r="U4" t="n">
-        <v>1264.606</v>
+        <v>1261</v>
       </c>
       <c r="V4" t="n">
-        <v>2158.825</v>
+        <v>2119</v>
       </c>
       <c r="W4" t="n">
-        <v>2530.249</v>
+        <v>2480</v>
       </c>
       <c r="X4" t="n">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="Y4" t="n">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="Z4" t="n">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="AA4" t="n">
         <v>2866.682</v>
@@ -9085,16 +9085,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>323.616</v>
+        <v>303</v>
       </c>
       <c r="J5" t="n">
-        <v>2131.926</v>
+        <v>2105</v>
       </c>
       <c r="K5" t="n">
-        <v>2296.472</v>
+        <v>2292</v>
       </c>
       <c r="L5" t="n">
-        <v>2868.806</v>
+        <v>2856</v>
       </c>
       <c r="M5" t="n">
         <v>2956.77</v>
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2344.302</v>
+        <v>2311</v>
       </c>
       <c r="H6" t="n">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="I6" t="n">
         <v>2525.806</v>
@@ -9155,10 +9155,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>718.526</v>
+        <v>685</v>
       </c>
       <c r="H7" t="n">
-        <v>2533.53</v>
+        <v>2504</v>
       </c>
       <c r="I7" t="n">
         <v>2618.083</v>
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1944.048</v>
+        <v>1913</v>
       </c>
       <c r="H8" t="n">
-        <v>2014.385</v>
+        <v>2009</v>
       </c>
       <c r="I8" t="n">
         <v>2124.71</v>
@@ -9275,22 +9275,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>814.5410000000001</v>
+        <v>781</v>
       </c>
       <c r="L10" t="n">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="M10" t="n">
-        <v>977.662</v>
+        <v>971.831</v>
       </c>
       <c r="N10" t="n">
-        <v>1065.831</v>
+        <v>1063.831</v>
       </c>
       <c r="O10" t="n">
-        <v>1163.831</v>
+        <v>1158.831</v>
       </c>
       <c r="P10" t="n">
-        <v>1668.239</v>
+        <v>1643</v>
       </c>
       <c r="Q10" t="n">
         <v>1763.529</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.03100000000001</v>
+        <v>32.016</v>
       </c>
       <c r="H2" t="n">
-        <v>180.213</v>
+        <v>159</v>
       </c>
       <c r="I2" t="n">
         <v>180.18</v>
@@ -9387,16 +9387,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>129.016</v>
+        <v>97</v>
       </c>
       <c r="J3" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K3" t="n">
-        <v>167.142</v>
+        <v>153</v>
       </c>
       <c r="L3" t="n">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M3" t="n">
         <v>221.541</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>157.623</v>
+        <v>126</v>
       </c>
       <c r="G4" t="n">
         <v>167.623</v>
@@ -9451,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>104.155</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>168.18</v>
+        <v>157</v>
       </c>
       <c r="I5" t="n">
         <v>197.414</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.056</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
-        <v>108.18</v>
+        <v>97</v>
       </c>
       <c r="J6" t="n">
-        <v>163.142</v>
+        <v>149</v>
       </c>
       <c r="K6" t="n">
         <v>184</v>
@@ -9524,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>100.541</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
-        <v>91.142</v>
+        <v>84.071</v>
       </c>
       <c r="J7" t="n">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K7" t="n">
         <v>159.495</v>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>91.414</v>
+        <v>61</v>
       </c>
       <c r="G9" t="n">
         <v>101.414</v>
@@ -9617,10 +9617,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>177.643</v>
+        <v>161</v>
       </c>
       <c r="I10" t="n">
         <v>186.232</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110.18</v>
+        <v>99</v>
       </c>
       <c r="G11" t="n">
         <v>120.18</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>80.02800000000001</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
         <v>90.02800000000001</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>102.811</v>
+        <v>87</v>
       </c>
       <c r="G13" t="n">
         <v>112.811</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>54.616</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
         <v>64.616</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
         <v>78</v>
@@ -9809,10 +9809,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>111.385</v>
+        <v>93</v>
       </c>
       <c r="H2" t="n">
-        <v>211.314</v>
+        <v>200</v>
       </c>
       <c r="I2" t="n">
         <v>219.055</v>
@@ -9847,16 +9847,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100.93</v>
+        <v>51</v>
       </c>
       <c r="J3" t="n">
-        <v>160.235</v>
+        <v>124</v>
       </c>
       <c r="K3" t="n">
-        <v>176.556</v>
+        <v>161</v>
       </c>
       <c r="L3" t="n">
-        <v>190.062</v>
+        <v>182</v>
       </c>
       <c r="M3" t="n">
         <v>213.095</v>
@@ -9888,13 +9888,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117.554</v>
+        <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>153.633</v>
+        <v>132</v>
       </c>
       <c r="J4" t="n">
-        <v>195.038</v>
+        <v>182</v>
       </c>
       <c r="K4" t="n">
         <v>213.095</v>
@@ -9952,13 +9952,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>64.03100000000001</v>
+        <v>32.016</v>
       </c>
       <c r="I6" t="n">
-        <v>153.385</v>
+        <v>135</v>
       </c>
       <c r="J6" t="n">
-        <v>179.525</v>
+        <v>162.263</v>
       </c>
       <c r="K6" t="n">
         <v>202.676</v>
@@ -9987,10 +9987,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.176</v>
+        <v>132</v>
       </c>
       <c r="H7" t="n">
-        <v>200.811</v>
+        <v>185</v>
       </c>
       <c r="I7" t="n">
         <v>219.042</v>
@@ -10022,13 +10022,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>96.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="I8" t="n">
-        <v>164.811</v>
+        <v>149</v>
       </c>
       <c r="J8" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K8" t="n">
         <v>215.541</v>
@@ -10060,13 +10060,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>82.801</v>
+        <v>41.4</v>
       </c>
       <c r="I9" t="n">
-        <v>113.907</v>
+        <v>87</v>
       </c>
       <c r="J9" t="n">
-        <v>168.708</v>
+        <v>162</v>
       </c>
       <c r="K9" t="n">
         <v>190.028</v>
@@ -10098,13 +10098,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.042</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>139.083</v>
+        <v>133</v>
       </c>
       <c r="J10" t="n">
-        <v>165.403</v>
+        <v>159</v>
       </c>
       <c r="K10" t="n">
         <v>180.18</v>
@@ -10142,19 +10142,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.804</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>85.236</v>
+        <v>83</v>
       </c>
       <c r="L11" t="n">
-        <v>104.314</v>
+        <v>98.657</v>
       </c>
       <c r="M11" t="n">
-        <v>163.162</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>193.831</v>
+        <v>188</v>
       </c>
       <c r="O11" t="n">
         <v>218.248</v>
@@ -10186,13 +10186,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.166</v>
+        <v>50</v>
       </c>
       <c r="I12" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J12" t="n">
-        <v>149.345</v>
+        <v>126</v>
       </c>
       <c r="K12" t="n">
         <v>167.623</v>
@@ -10221,10 +10221,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>116.661</v>
+        <v>77</v>
       </c>
       <c r="H13" t="n">
-        <v>204.318</v>
+        <v>179</v>
       </c>
       <c r="I13" t="n">
         <v>208.698</v>
@@ -10306,19 +10306,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53.866</v>
+        <v>39</v>
       </c>
       <c r="K15" t="n">
-        <v>64.708</v>
+        <v>58</v>
       </c>
       <c r="L15" t="n">
-        <v>83.616</v>
+        <v>76</v>
       </c>
       <c r="M15" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N15" t="n">
-        <v>150.125</v>
+        <v>134</v>
       </c>
       <c r="O15" t="n">
         <v>165.213</v>
@@ -10353,16 +10353,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J16" t="n">
-        <v>109.207</v>
+        <v>97</v>
       </c>
       <c r="K16" t="n">
-        <v>142.083</v>
+        <v>130</v>
       </c>
       <c r="L16" t="n">
-        <v>156.071</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>183.597</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H18" t="n">
-        <v>149.211</v>
+        <v>142</v>
       </c>
       <c r="I18" t="n">
         <v>173.378</v>
@@ -10479,16 +10479,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>36.77</v>
+        <v>18.385</v>
       </c>
       <c r="J19" t="n">
-        <v>48.781</v>
+        <v>38.583</v>
       </c>
       <c r="K19" t="n">
-        <v>70.22</v>
+        <v>61</v>
       </c>
       <c r="L19" t="n">
-        <v>108.28</v>
+        <v>101</v>
       </c>
       <c r="M19" t="n">
         <v>134.195</v>
@@ -10561,10 +10561,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>153.056</v>
+        <v>117</v>
       </c>
       <c r="H21" t="n">
-        <v>153.198</v>
+        <v>143</v>
       </c>
       <c r="I21" t="n">
         <v>194.037</v>
@@ -10596,13 +10596,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.472</v>
+        <v>35</v>
       </c>
       <c r="I22" t="n">
-        <v>74.38500000000001</v>
+        <v>69</v>
       </c>
       <c r="J22" t="n">
-        <v>159.698</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
         <v>172.804</v>
@@ -10637,16 +10637,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.205</v>
+        <v>51</v>
       </c>
       <c r="J23" t="n">
-        <v>84.062</v>
+        <v>76</v>
       </c>
       <c r="K23" t="n">
-        <v>120.042</v>
+        <v>108</v>
       </c>
       <c r="L23" t="n">
-        <v>176.034</v>
+        <v>147.017</v>
       </c>
       <c r="M23" t="n">
         <v>191.017</v>
@@ -10678,13 +10678,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>61.759</v>
+        <v>37</v>
       </c>
       <c r="I24" t="n">
-        <v>96.828</v>
+        <v>94</v>
       </c>
       <c r="J24" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K24" t="n">
         <v>148.361</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>45.325</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
         <v>55.325</v>
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G28" t="n">
         <v>52</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>104.155</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
-        <v>112.045</v>
+        <v>101</v>
       </c>
       <c r="I29" t="n">
         <v>135.331</v>
@@ -10879,10 +10879,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>61.155</v>
+        <v>32</v>
       </c>
       <c r="H30" t="n">
-        <v>67.72799999999999</v>
+        <v>55</v>
       </c>
       <c r="I30" t="n">
         <v>88.324</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>110.18</v>
+        <v>99</v>
       </c>
       <c r="G33" t="n">
         <v>120.18</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>99.47199999999999</v>
+        <v>95</v>
       </c>
       <c r="G36" t="n">
         <v>109.472</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>140.971</v>
+        <v>124</v>
       </c>
       <c r="G37" t="n">
         <v>150.971</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>63.314</v>
+        <v>52</v>
       </c>
       <c r="G38" t="n">
         <v>73.31399999999999</v>
@@ -11188,19 +11188,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.31100000000001</v>
+        <v>41</v>
       </c>
       <c r="K2" t="n">
-        <v>98.071</v>
+        <v>91</v>
       </c>
       <c r="L2" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M2" t="n">
-        <v>140.413</v>
+        <v>128.207</v>
       </c>
       <c r="N2" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O2" t="n">
         <v>193.079</v>
@@ -11355,16 +11355,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>70.711</v>
+        <v>35.355</v>
       </c>
       <c r="J6" t="n">
-        <v>63.831</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" t="n">
-        <v>160.715</v>
+        <v>121.357</v>
       </c>
       <c r="M6" t="n">
         <v>164.659</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>177.056</v>
+        <v>141</v>
       </c>
       <c r="G7" t="n">
         <v>187.056</v>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>80.806</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>90.806</v>
@@ -11563,34 +11563,34 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>113.311</v>
+        <v>73</v>
       </c>
       <c r="P2" t="n">
-        <v>398.198</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R2" t="n">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S2" t="n">
-        <v>479.602</v>
+        <v>471</v>
       </c>
       <c r="T2" t="n">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="U2" t="n">
-        <v>777.34</v>
+        <v>730.17</v>
       </c>
       <c r="V2" t="n">
-        <v>762.5309999999999</v>
+        <v>751.35</v>
       </c>
       <c r="W2" t="n">
-        <v>838.525</v>
+        <v>799.938</v>
       </c>
       <c r="X2" t="n">
-        <v>830.818</v>
+        <v>820.378</v>
       </c>
       <c r="Y2" t="n">
         <v>875.655</v>
@@ -11619,10 +11619,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>380.177</v>
+        <v>335</v>
       </c>
       <c r="H3" t="n">
-        <v>547.198</v>
+        <v>537</v>
       </c>
       <c r="I3" t="n">
         <v>582.057</v>
@@ -11663,22 +11663,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>255.388</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M4" t="n">
-        <v>340.195</v>
+        <v>294.098</v>
       </c>
       <c r="N4" t="n">
-        <v>385.198</v>
+        <v>375</v>
       </c>
       <c r="O4" t="n">
-        <v>558.051</v>
+        <v>519</v>
       </c>
       <c r="P4" t="n">
-        <v>685.231</v>
+        <v>644</v>
       </c>
       <c r="Q4" t="n">
         <v>690.056</v>
@@ -11757,10 +11757,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>182.806</v>
+        <v>152</v>
       </c>
       <c r="H6" t="n">
-        <v>412.761</v>
+        <v>371</v>
       </c>
       <c r="I6" t="n">
         <v>414.541</v>
@@ -11878,13 +11878,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>125.311</v>
+        <v>85</v>
       </c>
       <c r="I3" t="n">
-        <v>129.831</v>
+        <v>124</v>
       </c>
       <c r="J3" t="n">
-        <v>142.606</v>
+        <v>139</v>
       </c>
       <c r="K3" t="n">
         <v>193.204</v>
@@ -11960,19 +11960,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>96.38800000000001</v>
+        <v>64</v>
       </c>
       <c r="K5" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L5" t="n">
-        <v>177.091</v>
+        <v>133.045</v>
       </c>
       <c r="M5" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N5" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O5" t="n">
         <v>223.277</v>
@@ -12042,13 +12042,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I7" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J7" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K7" t="n">
         <v>193.057</v>
@@ -12080,13 +12080,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>173.523</v>
+        <v>115</v>
       </c>
       <c r="I8" t="n">
-        <v>147.361</v>
+        <v>136.18</v>
       </c>
       <c r="J8" t="n">
-        <v>156.951</v>
+        <v>151.566</v>
       </c>
       <c r="K8" t="n">
         <v>212.644</v>
@@ -12124,19 +12124,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>70.711</v>
+        <v>35.355</v>
       </c>
       <c r="K9" t="n">
-        <v>51.355</v>
+        <v>48.355</v>
       </c>
       <c r="L9" t="n">
-        <v>68.355</v>
+        <v>63.355</v>
       </c>
       <c r="M9" t="n">
-        <v>77.355</v>
+        <v>75.355</v>
       </c>
       <c r="N9" t="n">
-        <v>107.716</v>
+        <v>96.536</v>
       </c>
       <c r="O9" t="n">
         <v>140.077</v>
@@ -12168,13 +12168,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.023</v>
+        <v>43.012</v>
       </c>
       <c r="I10" t="n">
-        <v>80.831</v>
+        <v>75</v>
       </c>
       <c r="J10" t="n">
-        <v>98.40300000000001</v>
+        <v>92</v>
       </c>
       <c r="K10" t="n">
         <v>132.806</v>
@@ -12206,13 +12206,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>75.47199999999999</v>
+        <v>37.736</v>
       </c>
       <c r="I11" t="n">
-        <v>53.736</v>
+        <v>50.736</v>
       </c>
       <c r="J11" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" t="n">
         <v>158.357</v>
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>151.341</v>
+        <v>116</v>
       </c>
       <c r="G12" t="n">
         <v>161.341</v>
@@ -12299,10 +12299,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>73.056</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="I14" t="n">
         <v>141.051</v>

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
@@ -446,7 +446,7 @@
         <v>1164.355</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -976,7 +976,7 @@
         <v>1416.017</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
@@ -1726,7 +1726,7 @@
         <v>2633.545</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2896,7 @@
         <v>1751.805</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="2">
@@ -3826,7 +3826,7 @@
         <v>1617.454</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -4336,7 +4336,7 @@
         <v>1717.918</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="2">
@@ -5386,7 +5386,7 @@
         <v>535.242</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -5766,7 +5766,7 @@
         <v>679.063</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6086,7 @@
         <v>758.0410000000001</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -6656,7 +6656,7 @@
         <v>1932.541</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="2">
@@ -7586,7 +7586,7 @@
         <v>329.215</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -7886,7 +7886,7 @@
         <v>2354.173</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="2">
@@ -8816,7 +8816,7 @@
         <v>931.9059999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -9326,7 +9326,7 @@
         <v>810.229</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2456.547</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="2">
@@ -11156,7 +11156,7 @@
         <v>833.035</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -11516,7 +11516,7 @@
         <v>774.515</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -11796,7 +11796,7 @@
         <v>1557.467</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
@@ -446,7 +446,7 @@
         <v>1164.355</v>
       </c>
       <c r="C1" t="n">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
@@ -976,7 +976,7 @@
         <v>1416.017</v>
       </c>
       <c r="C1" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -1726,7 +1726,7 @@
         <v>2633.545</v>
       </c>
       <c r="C1" t="n">
-        <v>1966</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2896,7 @@
         <v>1751.805</v>
       </c>
       <c r="C1" t="n">
-        <v>1694</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="2">
@@ -3826,7 +3826,7 @@
         <v>1617.454</v>
       </c>
       <c r="C1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
@@ -4336,7 +4336,7 @@
         <v>1717.918</v>
       </c>
       <c r="C1" t="n">
-        <v>1995</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="2">
@@ -5386,7 +5386,7 @@
         <v>535.242</v>
       </c>
       <c r="C1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6086,7 @@
         <v>758.0410000000001</v>
       </c>
       <c r="C1" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -6656,7 +6656,7 @@
         <v>1932.541</v>
       </c>
       <c r="C1" t="n">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="2">
@@ -7586,7 +7586,7 @@
         <v>329.215</v>
       </c>
       <c r="C1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -7886,7 +7886,7 @@
         <v>2354.173</v>
       </c>
       <c r="C1" t="n">
-        <v>1860</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="2">
@@ -8816,7 +8816,7 @@
         <v>931.9059999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -9326,7 +9326,7 @@
         <v>810.229</v>
       </c>
       <c r="C1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2456.547</v>
       </c>
       <c r="C1" t="n">
-        <v>1972</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -11156,7 +11156,7 @@
         <v>833.035</v>
       </c>
       <c r="C1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -11516,7 +11516,7 @@
         <v>774.515</v>
       </c>
       <c r="C1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -11796,7 +11796,7 @@
         <v>1557.467</v>
       </c>
       <c r="C1" t="n">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario3.xlsx
@@ -25,6 +25,11 @@
     <sheet name="VRPTW4" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="VRPTW7" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="VRPTW16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="VRPTW101" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="VRPTW19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="VRPTW41" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="VRPTW42" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="VRPTW43" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7564,6 +7569,536 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1164.355</v>
+      </c>
+      <c r="C1" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>104</v>
+      </c>
+      <c r="L2" t="n">
+        <v>120.708</v>
+      </c>
+      <c r="M2" t="n">
+        <v>162.109</v>
+      </c>
+      <c r="N2" t="n">
+        <v>678</v>
+      </c>
+      <c r="O2" t="n">
+        <v>817</v>
+      </c>
+      <c r="P2" t="n">
+        <v>842</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>882</v>
+      </c>
+      <c r="R2" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>415</v>
+      </c>
+      <c r="K3" t="n">
+        <v>606</v>
+      </c>
+      <c r="L3" t="n">
+        <v>733</v>
+      </c>
+      <c r="M3" t="n">
+        <v>773</v>
+      </c>
+      <c r="N3" t="n">
+        <v>811.16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>836.3920000000001</v>
+      </c>
+      <c r="P3" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>360</v>
+      </c>
+      <c r="M4" t="n">
+        <v>409</v>
+      </c>
+      <c r="N4" t="n">
+        <v>423.243</v>
+      </c>
+      <c r="O4" t="n">
+        <v>588</v>
+      </c>
+      <c r="P4" t="n">
+        <v>690</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>744.283</v>
+      </c>
+      <c r="R4" t="n">
+        <v>782.567</v>
+      </c>
+      <c r="S4" t="n">
+        <v>833.604</v>
+      </c>
+      <c r="T4" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>527</v>
+      </c>
+      <c r="L5" t="n">
+        <v>551.1420000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>583.503</v>
+      </c>
+      <c r="N5" t="n">
+        <v>609.314</v>
+      </c>
+      <c r="O5" t="n">
+        <v>644.809</v>
+      </c>
+      <c r="P5" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>377</v>
+      </c>
+      <c r="K6" t="n">
+        <v>397</v>
+      </c>
+      <c r="L6" t="n">
+        <v>419.207</v>
+      </c>
+      <c r="M6" t="n">
+        <v>515</v>
+      </c>
+      <c r="N6" t="n">
+        <v>570.011</v>
+      </c>
+      <c r="O6" t="n">
+        <v>596.982</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>152</v>
+      </c>
+      <c r="J7" t="n">
+        <v>259</v>
+      </c>
+      <c r="K7" t="n">
+        <v>400</v>
+      </c>
+      <c r="L7" t="n">
+        <v>501</v>
+      </c>
+      <c r="M7" t="n">
+        <v>554.932</v>
+      </c>
+      <c r="N7" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>143</v>
+      </c>
+      <c r="M8" t="n">
+        <v>214</v>
+      </c>
+      <c r="N8" t="n">
+        <v>242.028</v>
+      </c>
+      <c r="O8" t="n">
+        <v>277.028</v>
+      </c>
+      <c r="P8" t="n">
+        <v>308.052</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>324.134</v>
+      </c>
+      <c r="R8" t="n">
+        <v>349.946</v>
+      </c>
+      <c r="S8" t="n">
+        <v>402.372</v>
+      </c>
+      <c r="T8" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L9" t="n">
+        <v>56.042</v>
+      </c>
+      <c r="M9" t="n">
+        <v>85</v>
+      </c>
+      <c r="N9" t="n">
+        <v>102.211</v>
+      </c>
+      <c r="O9" t="n">
+        <v>269</v>
+      </c>
+      <c r="P9" t="n">
+        <v>286.071</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>329.612</v>
+      </c>
+      <c r="R9" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>228</v>
+      </c>
+      <c r="H10" t="n">
+        <v>253.652</v>
+      </c>
+      <c r="I10" t="n">
+        <v>293.485</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>43</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.495</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44.715</v>
+      </c>
+      <c r="J11" t="n">
+        <v>620</v>
+      </c>
+      <c r="K11" t="n">
+        <v>664.176</v>
+      </c>
+      <c r="L11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -7857,6 +8392,1266 @@
       </c>
       <c r="T7" t="n">
         <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1" t="n">
+        <v>329.215</v>
+      </c>
+      <c r="C1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>914</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1014.198</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>825</v>
+      </c>
+      <c r="H3" t="n">
+        <v>917</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1025.682</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>732</v>
+      </c>
+      <c r="H4" t="n">
+        <v>825</v>
+      </c>
+      <c r="I4" t="n">
+        <v>927.1660000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>65</v>
+      </c>
+      <c r="M5" t="n">
+        <v>169</v>
+      </c>
+      <c r="N5" t="n">
+        <v>357</v>
+      </c>
+      <c r="O5" t="n">
+        <v>450</v>
+      </c>
+      <c r="P5" t="n">
+        <v>543.162</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>635.398</v>
+      </c>
+      <c r="R5" t="n">
+        <v>727.634</v>
+      </c>
+      <c r="S5" t="n">
+        <v>835.745</v>
+      </c>
+      <c r="T5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.133</v>
+      </c>
+      <c r="K6" t="n">
+        <v>106.133</v>
+      </c>
+      <c r="L6" t="n">
+        <v>198.133</v>
+      </c>
+      <c r="M6" t="n">
+        <v>290.961</v>
+      </c>
+      <c r="N6" t="n">
+        <v>652</v>
+      </c>
+      <c r="O6" t="n">
+        <v>780.079</v>
+      </c>
+      <c r="P6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>30.806</v>
+      </c>
+      <c r="M7" t="n">
+        <v>124.806</v>
+      </c>
+      <c r="N7" t="n">
+        <v>217.806</v>
+      </c>
+      <c r="O7" t="n">
+        <v>312.806</v>
+      </c>
+      <c r="P7" t="n">
+        <v>407.806</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>502.806</v>
+      </c>
+      <c r="R7" t="n">
+        <v>594.806</v>
+      </c>
+      <c r="S7" t="n">
+        <v>724.163</v>
+      </c>
+      <c r="T7" t="n">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1" t="n">
+        <v>679.063</v>
+      </c>
+      <c r="C1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>400</v>
+      </c>
+      <c r="L2" t="n">
+        <v>678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817</v>
+      </c>
+      <c r="N2" t="n">
+        <v>842</v>
+      </c>
+      <c r="O2" t="n">
+        <v>882</v>
+      </c>
+      <c r="P2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>228</v>
+      </c>
+      <c r="J3" t="n">
+        <v>527</v>
+      </c>
+      <c r="K3" t="n">
+        <v>707</v>
+      </c>
+      <c r="L3" t="n">
+        <v>757.706</v>
+      </c>
+      <c r="M3" t="n">
+        <v>798.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="n">
+        <v>331</v>
+      </c>
+      <c r="L4" t="n">
+        <v>404</v>
+      </c>
+      <c r="M4" t="n">
+        <v>577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>602.811</v>
+      </c>
+      <c r="O4" t="n">
+        <v>644.434</v>
+      </c>
+      <c r="P4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>206</v>
+      </c>
+      <c r="J5" t="n">
+        <v>234.028</v>
+      </c>
+      <c r="K5" t="n">
+        <v>409</v>
+      </c>
+      <c r="L5" t="n">
+        <v>690</v>
+      </c>
+      <c r="M5" t="n">
+        <v>711.1799999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>272</v>
+      </c>
+      <c r="J6" t="n">
+        <v>377</v>
+      </c>
+      <c r="K6" t="n">
+        <v>402.811</v>
+      </c>
+      <c r="L6" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>175</v>
+      </c>
+      <c r="I7" t="n">
+        <v>200.811</v>
+      </c>
+      <c r="J7" t="n">
+        <v>232.001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>260.001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>436.18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1" t="n">
+        <v>679.063</v>
+      </c>
+      <c r="C1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>400</v>
+      </c>
+      <c r="L2" t="n">
+        <v>678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817</v>
+      </c>
+      <c r="N2" t="n">
+        <v>842</v>
+      </c>
+      <c r="O2" t="n">
+        <v>882</v>
+      </c>
+      <c r="P2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>228</v>
+      </c>
+      <c r="J3" t="n">
+        <v>527</v>
+      </c>
+      <c r="K3" t="n">
+        <v>707</v>
+      </c>
+      <c r="L3" t="n">
+        <v>757.706</v>
+      </c>
+      <c r="M3" t="n">
+        <v>798.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="n">
+        <v>331</v>
+      </c>
+      <c r="L4" t="n">
+        <v>404</v>
+      </c>
+      <c r="M4" t="n">
+        <v>577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>602.811</v>
+      </c>
+      <c r="O4" t="n">
+        <v>644.434</v>
+      </c>
+      <c r="P4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>206</v>
+      </c>
+      <c r="J5" t="n">
+        <v>234.028</v>
+      </c>
+      <c r="K5" t="n">
+        <v>409</v>
+      </c>
+      <c r="L5" t="n">
+        <v>690</v>
+      </c>
+      <c r="M5" t="n">
+        <v>711.1799999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>272</v>
+      </c>
+      <c r="J6" t="n">
+        <v>377</v>
+      </c>
+      <c r="K6" t="n">
+        <v>402.811</v>
+      </c>
+      <c r="L6" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>175</v>
+      </c>
+      <c r="I7" t="n">
+        <v>200.811</v>
+      </c>
+      <c r="J7" t="n">
+        <v>232.001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>260.001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>436.18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1" t="n">
+        <v>679.063</v>
+      </c>
+      <c r="C1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>400</v>
+      </c>
+      <c r="L2" t="n">
+        <v>678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817</v>
+      </c>
+      <c r="N2" t="n">
+        <v>842</v>
+      </c>
+      <c r="O2" t="n">
+        <v>882</v>
+      </c>
+      <c r="P2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>228</v>
+      </c>
+      <c r="J3" t="n">
+        <v>527</v>
+      </c>
+      <c r="K3" t="n">
+        <v>707</v>
+      </c>
+      <c r="L3" t="n">
+        <v>757.706</v>
+      </c>
+      <c r="M3" t="n">
+        <v>798.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="n">
+        <v>331</v>
+      </c>
+      <c r="L4" t="n">
+        <v>404</v>
+      </c>
+      <c r="M4" t="n">
+        <v>577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>602.811</v>
+      </c>
+      <c r="O4" t="n">
+        <v>644.434</v>
+      </c>
+      <c r="P4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>206</v>
+      </c>
+      <c r="J5" t="n">
+        <v>234.028</v>
+      </c>
+      <c r="K5" t="n">
+        <v>409</v>
+      </c>
+      <c r="L5" t="n">
+        <v>690</v>
+      </c>
+      <c r="M5" t="n">
+        <v>711.1799999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>272</v>
+      </c>
+      <c r="J6" t="n">
+        <v>377</v>
+      </c>
+      <c r="K6" t="n">
+        <v>402.811</v>
+      </c>
+      <c r="L6" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>175</v>
+      </c>
+      <c r="I7" t="n">
+        <v>200.811</v>
+      </c>
+      <c r="J7" t="n">
+        <v>232.001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>260.001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>436.18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
